--- a/2021-07-07/data/midwestern_hemp_database.xlsx
+++ b/2021-07-07/data/midwestern_hemp_database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keega\Documents\cannlytics\cannabis-data-science\2021-07-07\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256E1D3A-78D7-4D00-8EA0-B52BF2F25CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9A5A89-DB82-4CFE-99F7-C5610CB6228A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11760" activeTab="2" xr2:uid="{4BCECACA-2A36-4F98-B5FE-62883110882D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5876" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5876" uniqueCount="395">
   <si>
     <t>Cultivar</t>
   </si>
@@ -969,27 +969,6 @@
     <t>Stray Kat SK1</t>
   </si>
   <si>
-    <t xml:space="preserve"> State</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> County</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sample ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sample Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Total CBD (%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Total THC (%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Total CBG (%)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Warren</t>
   </si>
   <si>
@@ -1075,9 +1054,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Nov 13</t>
-  </si>
-  <si>
-    <t>Sample Year</t>
   </si>
   <si>
     <t xml:space="preserve"> Kendall</t>
@@ -1213,6 +1189,39 @@
   </si>
   <si>
     <t xml:space="preserve"> Marquette</t>
+  </si>
+  <si>
+    <t>total_thc</t>
+  </si>
+  <si>
+    <t>total_cbd</t>
+  </si>
+  <si>
+    <t>total_cbg</t>
+  </si>
+  <si>
+    <t>sample_id</t>
+  </si>
+  <si>
+    <t>county</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>cultivar</t>
+  </si>
+  <si>
+    <t>sample_date</t>
+  </si>
+  <si>
+    <t>sample_year</t>
+  </si>
+  <si>
+    <t>cbd_thc_ratio</t>
   </si>
 </sst>
 </file>
@@ -13855,47 +13864,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF62043-FFA5-439E-98A0-7B09C66D1A74}">
   <dimension ref="A1:K753"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
     <col min="5" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>391</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>294</v>
+        <v>390</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>310</v>
+        <v>389</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>311</v>
+        <v>388</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>312</v>
+        <v>387</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>313</v>
+        <v>392</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>346</v>
+        <v>393</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>314</v>
+        <v>385</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>315</v>
+        <v>384</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>316</v>
+        <v>386</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>301</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -13909,7 +13922,7 @@
         <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E2">
         <v>643</v>
@@ -13944,7 +13957,7 @@
         <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="E3">
         <v>601</v>
@@ -13979,7 +13992,7 @@
         <v>102</v>
       </c>
       <c r="D4" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E4">
         <v>576</v>
@@ -14014,7 +14027,7 @@
         <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E5">
         <v>218</v>
@@ -14049,7 +14062,7 @@
         <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E6">
         <v>157</v>
@@ -14084,7 +14097,7 @@
         <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E7">
         <v>251</v>
@@ -14119,7 +14132,7 @@
         <v>93</v>
       </c>
       <c r="D8" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="E8">
         <v>128</v>
@@ -14154,7 +14167,7 @@
         <v>93</v>
       </c>
       <c r="D9" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E9">
         <v>387</v>
@@ -14189,7 +14202,7 @@
         <v>93</v>
       </c>
       <c r="D10" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="E10">
         <v>295</v>
@@ -14224,7 +14237,7 @@
         <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="E11">
         <v>385</v>
@@ -14259,13 +14272,13 @@
         <v>93</v>
       </c>
       <c r="D12" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="E12">
         <v>707</v>
       </c>
       <c r="F12" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="G12">
         <v>2020</v>
@@ -14294,7 +14307,7 @@
         <v>93</v>
       </c>
       <c r="D13" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="E13">
         <v>225</v>
@@ -14329,7 +14342,7 @@
         <v>159</v>
       </c>
       <c r="D14" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E14">
         <v>478</v>
@@ -14364,7 +14377,7 @@
         <v>159</v>
       </c>
       <c r="D15" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E15">
         <v>399</v>
@@ -14399,7 +14412,7 @@
         <v>159</v>
       </c>
       <c r="D16" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E16">
         <v>272</v>
@@ -14434,7 +14447,7 @@
         <v>93</v>
       </c>
       <c r="D17" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E17">
         <v>444</v>
@@ -14469,7 +14482,7 @@
         <v>93</v>
       </c>
       <c r="D18" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E18">
         <v>64</v>
@@ -14504,7 +14517,7 @@
         <v>93</v>
       </c>
       <c r="D19" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E19">
         <v>51</v>
@@ -14539,7 +14552,7 @@
         <v>93</v>
       </c>
       <c r="D20" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E20">
         <v>605</v>
@@ -14574,7 +14587,7 @@
         <v>93</v>
       </c>
       <c r="D21" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E21">
         <v>419</v>
@@ -14609,7 +14622,7 @@
         <v>93</v>
       </c>
       <c r="D22" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E22">
         <v>89</v>
@@ -14644,7 +14657,7 @@
         <v>93</v>
       </c>
       <c r="D23" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E23">
         <v>343</v>
@@ -14679,7 +14692,7 @@
         <v>93</v>
       </c>
       <c r="D24" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E24">
         <v>468</v>
@@ -14714,7 +14727,7 @@
         <v>93</v>
       </c>
       <c r="D25" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E25">
         <v>610</v>
@@ -14749,7 +14762,7 @@
         <v>93</v>
       </c>
       <c r="D26" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E26">
         <v>133</v>
@@ -14784,7 +14797,7 @@
         <v>93</v>
       </c>
       <c r="D27" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E27">
         <v>431</v>
@@ -14819,7 +14832,7 @@
         <v>93</v>
       </c>
       <c r="D28" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E28">
         <v>722</v>
@@ -14854,7 +14867,7 @@
         <v>93</v>
       </c>
       <c r="D29" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E29">
         <v>73</v>
@@ -14889,7 +14902,7 @@
         <v>93</v>
       </c>
       <c r="D30" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E30">
         <v>561</v>
@@ -14924,13 +14937,13 @@
         <v>102</v>
       </c>
       <c r="D31" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E31">
         <v>60</v>
       </c>
       <c r="F31" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G31">
         <v>2020</v>
@@ -14959,7 +14972,7 @@
         <v>102</v>
       </c>
       <c r="D32" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E32">
         <v>487</v>
@@ -14994,7 +15007,7 @@
         <v>93</v>
       </c>
       <c r="D33" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="E33">
         <v>634</v>
@@ -15029,7 +15042,7 @@
         <v>102</v>
       </c>
       <c r="D34" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E34">
         <v>488</v>
@@ -15064,7 +15077,7 @@
         <v>102</v>
       </c>
       <c r="D35" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E35">
         <v>329</v>
@@ -15099,7 +15112,7 @@
         <v>93</v>
       </c>
       <c r="D36" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="E36">
         <v>490</v>
@@ -15134,7 +15147,7 @@
         <v>93</v>
       </c>
       <c r="D37" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E37">
         <v>28</v>
@@ -15169,7 +15182,7 @@
         <v>93</v>
       </c>
       <c r="D38" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E38">
         <v>263</v>
@@ -15204,7 +15217,7 @@
         <v>93</v>
       </c>
       <c r="D39" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E39">
         <v>424</v>
@@ -15239,7 +15252,7 @@
         <v>93</v>
       </c>
       <c r="D40" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E40">
         <v>288</v>
@@ -15274,7 +15287,7 @@
         <v>93</v>
       </c>
       <c r="D41" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E41">
         <v>8</v>
@@ -15309,7 +15322,7 @@
         <v>102</v>
       </c>
       <c r="D42" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -15344,7 +15357,7 @@
         <v>93</v>
       </c>
       <c r="D43" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E43">
         <v>56</v>
@@ -15379,7 +15392,7 @@
         <v>93</v>
       </c>
       <c r="D44" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E44">
         <v>672</v>
@@ -15414,7 +15427,7 @@
         <v>93</v>
       </c>
       <c r="D45" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E45">
         <v>341</v>
@@ -15449,7 +15462,7 @@
         <v>93</v>
       </c>
       <c r="D46" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E46">
         <v>467</v>
@@ -15484,7 +15497,7 @@
         <v>93</v>
       </c>
       <c r="D47" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E47">
         <v>513</v>
@@ -15519,7 +15532,7 @@
         <v>93</v>
       </c>
       <c r="D48" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E48">
         <v>107</v>
@@ -15554,7 +15567,7 @@
         <v>102</v>
       </c>
       <c r="D49" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="E49">
         <v>588</v>
@@ -15589,7 +15602,7 @@
         <v>134</v>
       </c>
       <c r="D50" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E50">
         <v>638</v>
@@ -15624,7 +15637,7 @@
         <v>102</v>
       </c>
       <c r="D51" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="E51">
         <v>323</v>
@@ -15659,13 +15672,13 @@
         <v>102</v>
       </c>
       <c r="D52" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E52">
         <v>58</v>
       </c>
       <c r="F52" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G52">
         <v>2020</v>
@@ -15694,7 +15707,7 @@
         <v>159</v>
       </c>
       <c r="D53" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E53">
         <v>504</v>
@@ -15729,7 +15742,7 @@
         <v>102</v>
       </c>
       <c r="D54" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E54">
         <v>642</v>
@@ -15764,7 +15777,7 @@
         <v>102</v>
       </c>
       <c r="D55" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="E55">
         <v>708</v>
@@ -15799,7 +15812,7 @@
         <v>102</v>
       </c>
       <c r="D56" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E56">
         <v>328</v>
@@ -15834,7 +15847,7 @@
         <v>102</v>
       </c>
       <c r="D57" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E57">
         <v>489</v>
@@ -15869,7 +15882,7 @@
         <v>134</v>
       </c>
       <c r="D58" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E58">
         <v>283</v>
@@ -15904,7 +15917,7 @@
         <v>102</v>
       </c>
       <c r="D59" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E59">
         <v>578</v>
@@ -15939,13 +15952,13 @@
         <v>102</v>
       </c>
       <c r="D60" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="E60">
         <v>368</v>
       </c>
       <c r="F60" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G60">
         <v>2020</v>
@@ -15974,7 +15987,7 @@
         <v>134</v>
       </c>
       <c r="D61" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E61">
         <v>751</v>
@@ -16009,13 +16022,13 @@
         <v>102</v>
       </c>
       <c r="D62" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="E62">
         <v>190</v>
       </c>
       <c r="F62" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="G62">
         <v>2020</v>
@@ -16044,13 +16057,13 @@
         <v>102</v>
       </c>
       <c r="D63" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="E63">
         <v>189</v>
       </c>
       <c r="F63" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="G63">
         <v>2020</v>
@@ -16079,7 +16092,7 @@
         <v>102</v>
       </c>
       <c r="D64" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="E64">
         <v>479</v>
@@ -16114,7 +16127,7 @@
         <v>102</v>
       </c>
       <c r="D65" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="E65">
         <v>76</v>
@@ -16149,13 +16162,13 @@
         <v>134</v>
       </c>
       <c r="D66" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E66">
         <v>200</v>
       </c>
       <c r="F66" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G66">
         <v>2020</v>
@@ -16184,7 +16197,7 @@
         <v>102</v>
       </c>
       <c r="D67" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="E67">
         <v>416</v>
@@ -16219,7 +16232,7 @@
         <v>102</v>
       </c>
       <c r="D68" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E68">
         <v>503</v>
@@ -16254,7 +16267,7 @@
         <v>102</v>
       </c>
       <c r="D69" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E69">
         <v>395</v>
@@ -16289,7 +16302,7 @@
         <v>134</v>
       </c>
       <c r="D70" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E70">
         <v>394</v>
@@ -16324,7 +16337,7 @@
         <v>134</v>
       </c>
       <c r="D71" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="E71">
         <v>243</v>
@@ -16359,7 +16372,7 @@
         <v>134</v>
       </c>
       <c r="D72" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="E72">
         <v>244</v>
@@ -16394,7 +16407,7 @@
         <v>134</v>
       </c>
       <c r="D73" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E73">
         <v>376</v>
@@ -16429,13 +16442,13 @@
         <v>93</v>
       </c>
       <c r="D74" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="E74">
         <v>209</v>
       </c>
       <c r="F74" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="G74">
         <v>2020</v>
@@ -16464,7 +16477,7 @@
         <v>93</v>
       </c>
       <c r="D75" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="E75">
         <v>245</v>
@@ -16499,7 +16512,7 @@
         <v>134</v>
       </c>
       <c r="D76" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E76">
         <v>351</v>
@@ -16534,7 +16547,7 @@
         <v>134</v>
       </c>
       <c r="D77" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E77">
         <v>43</v>
@@ -16569,7 +16582,7 @@
         <v>134</v>
       </c>
       <c r="D78" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E78">
         <v>497</v>
@@ -16604,7 +16617,7 @@
         <v>93</v>
       </c>
       <c r="D79" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="E79">
         <v>19</v>
@@ -16639,7 +16652,7 @@
         <v>93</v>
       </c>
       <c r="D80" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="E80">
         <v>149</v>
@@ -16674,7 +16687,7 @@
         <v>93</v>
       </c>
       <c r="D81" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="E81">
         <v>275</v>
@@ -16709,7 +16722,7 @@
         <v>93</v>
       </c>
       <c r="D82" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E82">
         <v>617</v>
@@ -16744,7 +16757,7 @@
         <v>134</v>
       </c>
       <c r="D83" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E83">
         <v>238</v>
@@ -16779,7 +16792,7 @@
         <v>134</v>
       </c>
       <c r="D84" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E84">
         <v>357</v>
@@ -16814,7 +16827,7 @@
         <v>93</v>
       </c>
       <c r="D85" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E85">
         <v>268</v>
@@ -16849,7 +16862,7 @@
         <v>93</v>
       </c>
       <c r="D86" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E86">
         <v>420</v>
@@ -16884,7 +16897,7 @@
         <v>134</v>
       </c>
       <c r="D87" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E87">
         <v>45</v>
@@ -16919,7 +16932,7 @@
         <v>93</v>
       </c>
       <c r="D88" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E88">
         <v>90</v>
@@ -16954,7 +16967,7 @@
         <v>93</v>
       </c>
       <c r="D89" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E89">
         <v>432</v>
@@ -16989,13 +17002,13 @@
         <v>134</v>
       </c>
       <c r="D90" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="E90">
         <v>195</v>
       </c>
       <c r="F90" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G90">
         <v>2020</v>
@@ -17024,7 +17037,7 @@
         <v>134</v>
       </c>
       <c r="D91" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E91">
         <v>412</v>
@@ -17059,7 +17072,7 @@
         <v>134</v>
       </c>
       <c r="D92" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="E92">
         <v>409</v>
@@ -17094,7 +17107,7 @@
         <v>134</v>
       </c>
       <c r="D93" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="E93">
         <v>159</v>
@@ -17129,7 +17142,7 @@
         <v>93</v>
       </c>
       <c r="D94" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E94">
         <v>35</v>
@@ -17164,7 +17177,7 @@
         <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E95">
         <v>698</v>
@@ -17199,7 +17212,7 @@
         <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E96">
         <v>563</v>
@@ -17234,7 +17247,7 @@
         <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E97">
         <v>124</v>
@@ -17269,7 +17282,7 @@
         <v>102</v>
       </c>
       <c r="D98" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E98">
         <v>687</v>
@@ -17304,13 +17317,13 @@
         <v>102</v>
       </c>
       <c r="D99" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E99">
         <v>206</v>
       </c>
       <c r="F99" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="G99">
         <v>2020</v>
@@ -17339,7 +17352,7 @@
         <v>102</v>
       </c>
       <c r="D100" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="E100">
         <v>481</v>
@@ -17374,7 +17387,7 @@
         <v>102</v>
       </c>
       <c r="D101" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="E101">
         <v>324</v>
@@ -17409,7 +17422,7 @@
         <v>102</v>
       </c>
       <c r="D102" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="E102">
         <v>481</v>
@@ -17444,7 +17457,7 @@
         <v>102</v>
       </c>
       <c r="D103" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E103">
         <v>687</v>
@@ -17479,7 +17492,7 @@
         <v>93</v>
       </c>
       <c r="D104" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E104">
         <v>665</v>
@@ -17514,7 +17527,7 @@
         <v>93</v>
       </c>
       <c r="D105" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E105">
         <v>31</v>
@@ -17549,7 +17562,7 @@
         <v>93</v>
       </c>
       <c r="D106" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E106">
         <v>607</v>
@@ -17584,7 +17597,7 @@
         <v>93</v>
       </c>
       <c r="D107" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E107">
         <v>261</v>
@@ -17619,7 +17632,7 @@
         <v>93</v>
       </c>
       <c r="D108" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E108">
         <v>437</v>
@@ -17654,7 +17667,7 @@
         <v>93</v>
       </c>
       <c r="D109" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E109">
         <v>374</v>
@@ -17689,7 +17702,7 @@
         <v>93</v>
       </c>
       <c r="D110" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E110">
         <v>119</v>
@@ -17724,7 +17737,7 @@
         <v>93</v>
       </c>
       <c r="D111" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E111">
         <v>679</v>
@@ -17759,7 +17772,7 @@
         <v>93</v>
       </c>
       <c r="D112" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E112">
         <v>47</v>
@@ -17794,7 +17807,7 @@
         <v>93</v>
       </c>
       <c r="D113" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E113">
         <v>348</v>
@@ -17829,7 +17842,7 @@
         <v>93</v>
       </c>
       <c r="D114" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E114">
         <v>523</v>
@@ -17864,7 +17877,7 @@
         <v>93</v>
       </c>
       <c r="D115" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E115">
         <v>455</v>
@@ -17899,7 +17912,7 @@
         <v>93</v>
       </c>
       <c r="D116" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E116">
         <v>389</v>
@@ -17934,7 +17947,7 @@
         <v>93</v>
       </c>
       <c r="D117" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E117">
         <v>248</v>
@@ -17969,7 +17982,7 @@
         <v>93</v>
       </c>
       <c r="D118" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E118">
         <v>219</v>
@@ -18004,7 +18017,7 @@
         <v>93</v>
       </c>
       <c r="D119" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E119">
         <v>731</v>
@@ -18039,7 +18052,7 @@
         <v>159</v>
       </c>
       <c r="D120" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E120">
         <v>400</v>
@@ -18074,7 +18087,7 @@
         <v>159</v>
       </c>
       <c r="D121" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E121">
         <v>273</v>
@@ -18109,7 +18122,7 @@
         <v>159</v>
       </c>
       <c r="D122" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E122">
         <v>474</v>
@@ -18144,7 +18157,7 @@
         <v>102</v>
       </c>
       <c r="D123" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E123">
         <v>38</v>
@@ -18179,7 +18192,7 @@
         <v>102</v>
       </c>
       <c r="D124" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E124">
         <v>39</v>
@@ -18214,7 +18227,7 @@
         <v>93</v>
       </c>
       <c r="D125" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="E125">
         <v>637</v>
@@ -18249,7 +18262,7 @@
         <v>93</v>
       </c>
       <c r="D126" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="E126">
         <v>471</v>
@@ -18284,7 +18297,7 @@
         <v>93</v>
       </c>
       <c r="D127" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="E127">
         <v>380</v>
@@ -18319,7 +18332,7 @@
         <v>93</v>
       </c>
       <c r="D128" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="E128">
         <v>583</v>
@@ -18354,7 +18367,7 @@
         <v>93</v>
       </c>
       <c r="D129" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="E129">
         <v>703</v>
@@ -18389,7 +18402,7 @@
         <v>134</v>
       </c>
       <c r="D130" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="E130">
         <v>123</v>
@@ -18424,7 +18437,7 @@
         <v>93</v>
       </c>
       <c r="D131" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="E131">
         <v>363</v>
@@ -18459,7 +18472,7 @@
         <v>93</v>
       </c>
       <c r="D132" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="E132">
         <v>255</v>
@@ -18494,7 +18507,7 @@
         <v>93</v>
       </c>
       <c r="D133" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="E133">
         <v>410</v>
@@ -18529,7 +18542,7 @@
         <v>93</v>
       </c>
       <c r="D134" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="E134">
         <v>493</v>
@@ -18564,7 +18577,7 @@
         <v>93</v>
       </c>
       <c r="D135" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="E135">
         <v>582</v>
@@ -18599,13 +18612,13 @@
         <v>134</v>
       </c>
       <c r="D136" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="E136">
         <v>194</v>
       </c>
       <c r="F136" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G136">
         <v>2020</v>
@@ -18634,7 +18647,7 @@
         <v>93</v>
       </c>
       <c r="D137" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="E137">
         <v>87</v>
@@ -18669,7 +18682,7 @@
         <v>93</v>
       </c>
       <c r="D138" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="E138">
         <v>86</v>
@@ -18704,7 +18717,7 @@
         <v>134</v>
       </c>
       <c r="D139" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="E139">
         <v>597</v>
@@ -18739,7 +18752,7 @@
         <v>93</v>
       </c>
       <c r="D140" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="E140">
         <v>371</v>
@@ -18774,7 +18787,7 @@
         <v>93</v>
       </c>
       <c r="D141" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="E141">
         <v>80</v>
@@ -18809,7 +18822,7 @@
         <v>93</v>
       </c>
       <c r="D142" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="E142">
         <v>316</v>
@@ -18844,7 +18857,7 @@
         <v>93</v>
       </c>
       <c r="D143" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="E143">
         <v>711</v>
@@ -18879,7 +18892,7 @@
         <v>159</v>
       </c>
       <c r="D144" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E144">
         <v>270</v>
@@ -18914,7 +18927,7 @@
         <v>159</v>
       </c>
       <c r="D145" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E145">
         <v>398</v>
@@ -18949,7 +18962,7 @@
         <v>159</v>
       </c>
       <c r="D146" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E146">
         <v>477</v>
@@ -18984,7 +18997,7 @@
         <v>102</v>
       </c>
       <c r="D147" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="E147">
         <v>326</v>
@@ -19019,7 +19032,7 @@
         <v>93</v>
       </c>
       <c r="D148" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E148">
         <v>446</v>
@@ -19054,7 +19067,7 @@
         <v>93</v>
       </c>
       <c r="D149" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E149">
         <v>445</v>
@@ -19089,7 +19102,7 @@
         <v>13</v>
       </c>
       <c r="D150" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E150">
         <v>507</v>
@@ -19124,7 +19137,7 @@
         <v>102</v>
       </c>
       <c r="D151" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E151">
         <v>122</v>
@@ -19159,7 +19172,7 @@
         <v>102</v>
       </c>
       <c r="D152" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E152">
         <v>485</v>
@@ -19194,7 +19207,7 @@
         <v>102</v>
       </c>
       <c r="D153" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E153">
         <v>121</v>
@@ -19229,7 +19242,7 @@
         <v>102</v>
       </c>
       <c r="D154" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E154">
         <v>486</v>
@@ -19264,7 +19277,7 @@
         <v>102</v>
       </c>
       <c r="D155" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E155">
         <v>544</v>
@@ -19299,7 +19312,7 @@
         <v>102</v>
       </c>
       <c r="D156" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="E156">
         <v>308</v>
@@ -19334,7 +19347,7 @@
         <v>102</v>
       </c>
       <c r="D157" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E157">
         <v>580</v>
@@ -19369,7 +19382,7 @@
         <v>134</v>
       </c>
       <c r="D158" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="E158">
         <v>573</v>
@@ -19404,13 +19417,13 @@
         <v>93</v>
       </c>
       <c r="D159" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="E159">
         <v>57</v>
       </c>
       <c r="F159" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="G159">
         <v>2020</v>
@@ -19439,7 +19452,7 @@
         <v>134</v>
       </c>
       <c r="D160" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="E160">
         <v>571</v>
@@ -19474,7 +19487,7 @@
         <v>134</v>
       </c>
       <c r="D161" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="E161">
         <v>417</v>
@@ -19509,7 +19522,7 @@
         <v>102</v>
       </c>
       <c r="D162" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E162">
         <v>624</v>
@@ -19544,7 +19557,7 @@
         <v>134</v>
       </c>
       <c r="D163" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="E163">
         <v>623</v>
@@ -19579,7 +19592,7 @@
         <v>134</v>
       </c>
       <c r="D164" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="E164">
         <v>622</v>
@@ -19614,7 +19627,7 @@
         <v>102</v>
       </c>
       <c r="D165" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E165">
         <v>686</v>
@@ -19649,7 +19662,7 @@
         <v>102</v>
       </c>
       <c r="D166" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E166">
         <v>483</v>
@@ -19684,7 +19697,7 @@
         <v>102</v>
       </c>
       <c r="D167" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E167">
         <v>625</v>
@@ -19719,7 +19732,7 @@
         <v>134</v>
       </c>
       <c r="D168" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="E168">
         <v>356</v>
@@ -19754,7 +19767,7 @@
         <v>102</v>
       </c>
       <c r="D169" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="E169">
         <v>602</v>
@@ -19789,7 +19802,7 @@
         <v>134</v>
       </c>
       <c r="D170" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="E170">
         <v>570</v>
@@ -19824,13 +19837,13 @@
         <v>102</v>
       </c>
       <c r="D171" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="E171">
         <v>202</v>
       </c>
       <c r="F171" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="G171">
         <v>2020</v>
@@ -19859,13 +19872,13 @@
         <v>13</v>
       </c>
       <c r="D172" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E172">
         <v>203</v>
       </c>
       <c r="F172" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="G172">
         <v>2020</v>
@@ -19894,7 +19907,7 @@
         <v>102</v>
       </c>
       <c r="D173" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="E173">
         <v>480</v>
@@ -19929,13 +19942,13 @@
         <v>102</v>
       </c>
       <c r="D174" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E174">
         <v>180</v>
       </c>
       <c r="F174" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="G174">
         <v>2020</v>
@@ -19964,7 +19977,7 @@
         <v>102</v>
       </c>
       <c r="D175" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E175">
         <v>627</v>
@@ -19999,7 +20012,7 @@
         <v>102</v>
       </c>
       <c r="D176" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="E176">
         <v>179</v>
@@ -20034,7 +20047,7 @@
         <v>102</v>
       </c>
       <c r="D177" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="E177">
         <v>178</v>
@@ -20069,13 +20082,13 @@
         <v>102</v>
       </c>
       <c r="D178" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E178">
         <v>658</v>
       </c>
       <c r="F178" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G178">
         <v>2020</v>
@@ -20104,13 +20117,13 @@
         <v>102</v>
       </c>
       <c r="D179" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E179">
         <v>657</v>
       </c>
       <c r="F179" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G179">
         <v>2020</v>
@@ -20139,7 +20152,7 @@
         <v>93</v>
       </c>
       <c r="D180" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="E180">
         <v>499</v>
@@ -20174,7 +20187,7 @@
         <v>134</v>
       </c>
       <c r="D181" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="E181">
         <v>418</v>
@@ -20209,7 +20222,7 @@
         <v>159</v>
       </c>
       <c r="D182" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="E182">
         <v>296</v>
@@ -20244,7 +20257,7 @@
         <v>102</v>
       </c>
       <c r="D183" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E183">
         <v>628</v>
@@ -20279,7 +20292,7 @@
         <v>102</v>
       </c>
       <c r="D184" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E184">
         <v>484</v>
@@ -20314,7 +20327,7 @@
         <v>102</v>
       </c>
       <c r="D185" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="E185">
         <v>349</v>
@@ -20349,13 +20362,13 @@
         <v>102</v>
       </c>
       <c r="D186" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E186">
         <v>659</v>
       </c>
       <c r="F186" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G186">
         <v>2020</v>
@@ -20384,13 +20397,13 @@
         <v>102</v>
       </c>
       <c r="D187" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E187">
         <v>656</v>
       </c>
       <c r="F187" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G187">
         <v>2020</v>
@@ -20419,7 +20432,7 @@
         <v>93</v>
       </c>
       <c r="D188" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E188">
         <v>442</v>
@@ -20454,7 +20467,7 @@
         <v>134</v>
       </c>
       <c r="D189" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="E189">
         <v>575</v>
@@ -20489,7 +20502,7 @@
         <v>134</v>
       </c>
       <c r="D190" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="E190">
         <v>574</v>
@@ -20524,7 +20537,7 @@
         <v>102</v>
       </c>
       <c r="D191" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="E191">
         <v>79</v>
@@ -20559,7 +20572,7 @@
         <v>102</v>
       </c>
       <c r="D192" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="E192">
         <v>551</v>
@@ -20594,7 +20607,7 @@
         <v>13</v>
       </c>
       <c r="D193" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E193">
         <v>506</v>
@@ -20629,7 +20642,7 @@
         <v>159</v>
       </c>
       <c r="D194" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="E194">
         <v>407</v>
@@ -20664,7 +20677,7 @@
         <v>93</v>
       </c>
       <c r="D195" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E195">
         <v>70</v>
@@ -20699,7 +20712,7 @@
         <v>93</v>
       </c>
       <c r="D196" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E196">
         <v>443</v>
@@ -20734,7 +20747,7 @@
         <v>134</v>
       </c>
       <c r="D197" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="E197">
         <v>572</v>
@@ -20769,7 +20782,7 @@
         <v>93</v>
       </c>
       <c r="D198" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E198">
         <v>69</v>
@@ -20804,7 +20817,7 @@
         <v>93</v>
       </c>
       <c r="D199" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E199">
         <v>68</v>
@@ -20839,7 +20852,7 @@
         <v>93</v>
       </c>
       <c r="D200" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E200">
         <v>67</v>
@@ -20874,7 +20887,7 @@
         <v>159</v>
       </c>
       <c r="D201" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="E201">
         <v>296</v>
@@ -20909,7 +20922,7 @@
         <v>134</v>
       </c>
       <c r="D202" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="E202">
         <v>417</v>
@@ -20944,7 +20957,7 @@
         <v>93</v>
       </c>
       <c r="D203" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E203">
         <v>446</v>
@@ -20979,7 +20992,7 @@
         <v>93</v>
       </c>
       <c r="D204" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E204">
         <v>70</v>
@@ -21014,7 +21027,7 @@
         <v>93</v>
       </c>
       <c r="D205" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="E205">
         <v>499</v>
@@ -21049,7 +21062,7 @@
         <v>102</v>
       </c>
       <c r="D206" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="E206">
         <v>744</v>
@@ -21084,7 +21097,7 @@
         <v>93</v>
       </c>
       <c r="D207" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E207">
         <v>69</v>
@@ -21119,7 +21132,7 @@
         <v>102</v>
       </c>
       <c r="D208" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="E208">
         <v>551</v>
@@ -21154,7 +21167,7 @@
         <v>102</v>
       </c>
       <c r="D209" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E209">
         <v>706</v>
@@ -21189,7 +21202,7 @@
         <v>93</v>
       </c>
       <c r="D210" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E210">
         <v>68</v>
@@ -21224,7 +21237,7 @@
         <v>93</v>
       </c>
       <c r="D211" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E211">
         <v>67</v>
@@ -21259,13 +21272,13 @@
         <v>102</v>
       </c>
       <c r="D212" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E212">
         <v>656</v>
       </c>
       <c r="F212" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G212">
         <v>2020</v>
@@ -21294,7 +21307,7 @@
         <v>93</v>
       </c>
       <c r="D213" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E213">
         <v>66</v>
@@ -21329,7 +21342,7 @@
         <v>102</v>
       </c>
       <c r="D214" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E214">
         <v>485</v>
@@ -21364,7 +21377,7 @@
         <v>159</v>
       </c>
       <c r="D215" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E215">
         <v>505</v>
@@ -21399,7 +21412,7 @@
         <v>13</v>
       </c>
       <c r="D216" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E216">
         <v>509</v>
@@ -21434,7 +21447,7 @@
         <v>93</v>
       </c>
       <c r="D217" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E217">
         <v>65</v>
@@ -21469,7 +21482,7 @@
         <v>93</v>
       </c>
       <c r="D218" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E218">
         <v>62</v>
@@ -21504,7 +21517,7 @@
         <v>93</v>
       </c>
       <c r="D219" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E219">
         <v>114</v>
@@ -21539,7 +21552,7 @@
         <v>102</v>
       </c>
       <c r="D220" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="E220">
         <v>542</v>
@@ -21574,7 +21587,7 @@
         <v>93</v>
       </c>
       <c r="D221" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E221">
         <v>525</v>
@@ -21609,7 +21622,7 @@
         <v>102</v>
       </c>
       <c r="D222" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E222">
         <v>652</v>
@@ -21644,13 +21657,13 @@
         <v>102</v>
       </c>
       <c r="D223" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E223">
         <v>181</v>
       </c>
       <c r="F223" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="G223">
         <v>2020</v>
@@ -21665,7 +21678,7 @@
         <v>0</v>
       </c>
       <c r="K223" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.35">
@@ -21679,7 +21692,7 @@
         <v>93</v>
       </c>
       <c r="D224" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E224">
         <v>558</v>
@@ -21714,7 +21727,7 @@
         <v>93</v>
       </c>
       <c r="D225" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E225">
         <v>666</v>
@@ -21749,13 +21762,13 @@
         <v>102</v>
       </c>
       <c r="D226" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="E226">
         <v>147</v>
       </c>
       <c r="F226" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="G226">
         <v>2020</v>
@@ -21784,13 +21797,13 @@
         <v>102</v>
       </c>
       <c r="D227" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E227">
         <v>146</v>
       </c>
       <c r="F227" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="G227">
         <v>2020</v>
@@ -21819,7 +21832,7 @@
         <v>93</v>
       </c>
       <c r="D228" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E228">
         <v>72</v>
@@ -21854,7 +21867,7 @@
         <v>102</v>
       </c>
       <c r="D229" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E229">
         <v>541</v>
@@ -21889,7 +21902,7 @@
         <v>102</v>
       </c>
       <c r="D230" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E230">
         <v>540</v>
@@ -21924,7 +21937,7 @@
         <v>93</v>
       </c>
       <c r="D231" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E231">
         <v>426</v>
@@ -21959,7 +21972,7 @@
         <v>93</v>
       </c>
       <c r="D232" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="E232">
         <v>569</v>
@@ -21994,7 +22007,7 @@
         <v>93</v>
       </c>
       <c r="D233" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="E233">
         <v>568</v>
@@ -22029,13 +22042,13 @@
         <v>93</v>
       </c>
       <c r="D234" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="E234">
         <v>186</v>
       </c>
       <c r="F234" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="G234">
         <v>2020</v>
@@ -22064,7 +22077,7 @@
         <v>93</v>
       </c>
       <c r="D235" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="E235">
         <v>366</v>
@@ -22099,7 +22112,7 @@
         <v>93</v>
       </c>
       <c r="D236" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="E236">
         <v>158</v>
@@ -22134,7 +22147,7 @@
         <v>93</v>
       </c>
       <c r="D237" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="E237">
         <v>322</v>
@@ -22169,7 +22182,7 @@
         <v>93</v>
       </c>
       <c r="D238" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="E238">
         <v>590</v>
@@ -22204,7 +22217,7 @@
         <v>93</v>
       </c>
       <c r="D239" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="E239">
         <v>696</v>
@@ -22239,13 +22252,13 @@
         <v>93</v>
       </c>
       <c r="D240" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="E240">
         <v>227</v>
       </c>
       <c r="F240" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="G240">
         <v>2020</v>
@@ -22274,13 +22287,13 @@
         <v>93</v>
       </c>
       <c r="D241" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E241">
         <v>226</v>
       </c>
       <c r="F241" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="G241">
         <v>2020</v>
@@ -22309,7 +22322,7 @@
         <v>93</v>
       </c>
       <c r="D242" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="E242">
         <v>591</v>
@@ -22344,7 +22357,7 @@
         <v>93</v>
       </c>
       <c r="D243" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="E243">
         <v>592</v>
@@ -22379,13 +22392,13 @@
         <v>93</v>
       </c>
       <c r="D244" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="E244">
         <v>655</v>
       </c>
       <c r="F244" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G244">
         <v>2020</v>
@@ -22414,7 +22427,7 @@
         <v>93</v>
       </c>
       <c r="D245" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="E245">
         <v>556</v>
@@ -22449,7 +22462,7 @@
         <v>93</v>
       </c>
       <c r="D246" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="E246">
         <v>727</v>
@@ -22484,7 +22497,7 @@
         <v>93</v>
       </c>
       <c r="D247" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="E247">
         <v>472</v>
@@ -22519,7 +22532,7 @@
         <v>93</v>
       </c>
       <c r="D248" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="E248">
         <v>695</v>
@@ -22554,7 +22567,7 @@
         <v>93</v>
       </c>
       <c r="D249" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="E249">
         <v>694</v>
@@ -22589,7 +22602,7 @@
         <v>93</v>
       </c>
       <c r="D250" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="E250">
         <v>728</v>
@@ -22624,7 +22637,7 @@
         <v>93</v>
       </c>
       <c r="D251" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="E251">
         <v>408</v>
@@ -22659,7 +22672,7 @@
         <v>93</v>
       </c>
       <c r="D252" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="E252">
         <v>557</v>
@@ -22694,7 +22707,7 @@
         <v>93</v>
       </c>
       <c r="D253" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="E253">
         <v>311</v>
@@ -22729,7 +22742,7 @@
         <v>93</v>
       </c>
       <c r="D254" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="E254">
         <v>312</v>
@@ -22764,7 +22777,7 @@
         <v>93</v>
       </c>
       <c r="D255" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="E255">
         <v>207</v>
@@ -22799,7 +22812,7 @@
         <v>93</v>
       </c>
       <c r="D256" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="E256">
         <v>36</v>
@@ -22834,7 +22847,7 @@
         <v>159</v>
       </c>
       <c r="D257" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E257">
         <v>397</v>
@@ -22869,7 +22882,7 @@
         <v>159</v>
       </c>
       <c r="D258" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E258">
         <v>473</v>
@@ -22904,7 +22917,7 @@
         <v>159</v>
       </c>
       <c r="D259" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E259">
         <v>274</v>
@@ -22939,7 +22952,7 @@
         <v>93</v>
       </c>
       <c r="D260" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E260">
         <v>30</v>
@@ -22974,7 +22987,7 @@
         <v>93</v>
       </c>
       <c r="D261" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E261">
         <v>113</v>
@@ -23009,7 +23022,7 @@
         <v>93</v>
       </c>
       <c r="D262" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E262">
         <v>662</v>
@@ -23044,7 +23057,7 @@
         <v>93</v>
       </c>
       <c r="D263" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E263">
         <v>428</v>
@@ -23079,7 +23092,7 @@
         <v>93</v>
       </c>
       <c r="D264" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E264">
         <v>520</v>
@@ -23114,7 +23127,7 @@
         <v>93</v>
       </c>
       <c r="D265" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E265">
         <v>257</v>
@@ -23149,7 +23162,7 @@
         <v>93</v>
       </c>
       <c r="D266" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E266">
         <v>423</v>
@@ -23184,7 +23197,7 @@
         <v>93</v>
       </c>
       <c r="D267" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E267">
         <v>433</v>
@@ -23219,7 +23232,7 @@
         <v>93</v>
       </c>
       <c r="D268" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E268">
         <v>24</v>
@@ -23254,7 +23267,7 @@
         <v>93</v>
       </c>
       <c r="D269" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E269">
         <v>291</v>
@@ -23289,7 +23302,7 @@
         <v>93</v>
       </c>
       <c r="D270" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E270">
         <v>37</v>
@@ -23324,7 +23337,7 @@
         <v>93</v>
       </c>
       <c r="D271" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E271">
         <v>264</v>
@@ -23359,7 +23372,7 @@
         <v>93</v>
       </c>
       <c r="D272" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E272">
         <v>603</v>
@@ -23394,7 +23407,7 @@
         <v>93</v>
       </c>
       <c r="D273" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E273">
         <v>459</v>
@@ -23429,7 +23442,7 @@
         <v>93</v>
       </c>
       <c r="D274" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E274">
         <v>53</v>
@@ -23464,7 +23477,7 @@
         <v>93</v>
       </c>
       <c r="D275" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E275">
         <v>88</v>
@@ -23499,7 +23512,7 @@
         <v>93</v>
       </c>
       <c r="D276" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E276">
         <v>340</v>
@@ -23534,7 +23547,7 @@
         <v>93</v>
       </c>
       <c r="D277" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E277">
         <v>421</v>
@@ -23569,7 +23582,7 @@
         <v>93</v>
       </c>
       <c r="D278" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="E278">
         <v>61</v>
@@ -23604,13 +23617,13 @@
         <v>93</v>
       </c>
       <c r="D279" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="E279">
         <v>369</v>
       </c>
       <c r="F279" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G279">
         <v>2020</v>
@@ -23639,7 +23652,7 @@
         <v>93</v>
       </c>
       <c r="D280" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="E280">
         <v>567</v>
@@ -23674,7 +23687,7 @@
         <v>93</v>
       </c>
       <c r="D281" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E281">
         <v>120</v>
@@ -23709,7 +23722,7 @@
         <v>93</v>
       </c>
       <c r="D282" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E282">
         <v>430</v>
@@ -23744,7 +23757,7 @@
         <v>93</v>
       </c>
       <c r="D283" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E283">
         <v>562</v>
@@ -23779,7 +23792,7 @@
         <v>134</v>
       </c>
       <c r="D284" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E284">
         <v>498</v>
@@ -23814,7 +23827,7 @@
         <v>134</v>
       </c>
       <c r="D285" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E285">
         <v>44</v>
@@ -23849,7 +23862,7 @@
         <v>134</v>
       </c>
       <c r="D286" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E286">
         <v>166</v>
@@ -23884,7 +23897,7 @@
         <v>134</v>
       </c>
       <c r="D287" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E287">
         <v>152</v>
@@ -23919,7 +23932,7 @@
         <v>93</v>
       </c>
       <c r="D288" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E288">
         <v>71</v>
@@ -23954,7 +23967,7 @@
         <v>93</v>
       </c>
       <c r="D289" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E289">
         <v>682</v>
@@ -23989,7 +24002,7 @@
         <v>93</v>
       </c>
       <c r="D290" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E290">
         <v>531</v>
@@ -24024,7 +24037,7 @@
         <v>102</v>
       </c>
       <c r="D291" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="E291">
         <v>307</v>
@@ -24059,7 +24072,7 @@
         <v>102</v>
       </c>
       <c r="D292" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E292">
         <v>242</v>
@@ -24094,7 +24107,7 @@
         <v>102</v>
       </c>
       <c r="D293" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E293">
         <v>241</v>
@@ -24129,7 +24142,7 @@
         <v>102</v>
       </c>
       <c r="D294" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E294">
         <v>2</v>
@@ -24164,13 +24177,13 @@
         <v>102</v>
       </c>
       <c r="D295" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E295">
         <v>196</v>
       </c>
       <c r="F295" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="G295">
         <v>2020</v>
@@ -24199,7 +24212,7 @@
         <v>93</v>
       </c>
       <c r="D296" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E296">
         <v>632</v>
@@ -24234,7 +24247,7 @@
         <v>93</v>
       </c>
       <c r="D297" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E297">
         <v>527</v>
@@ -24269,7 +24282,7 @@
         <v>93</v>
       </c>
       <c r="D298" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E298">
         <v>110</v>
@@ -24304,7 +24317,7 @@
         <v>93</v>
       </c>
       <c r="D299" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E299">
         <v>663</v>
@@ -24339,7 +24352,7 @@
         <v>93</v>
       </c>
       <c r="D300" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E300">
         <v>98</v>
@@ -24374,7 +24387,7 @@
         <v>93</v>
       </c>
       <c r="D301" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E301">
         <v>663</v>
@@ -24409,7 +24422,7 @@
         <v>93</v>
       </c>
       <c r="D302" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E302">
         <v>115</v>
@@ -24444,7 +24457,7 @@
         <v>93</v>
       </c>
       <c r="D303" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E303">
         <v>99</v>
@@ -24479,7 +24492,7 @@
         <v>93</v>
       </c>
       <c r="D304" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E304">
         <v>669</v>
@@ -24514,7 +24527,7 @@
         <v>93</v>
       </c>
       <c r="D305" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E305">
         <v>465</v>
@@ -24549,7 +24562,7 @@
         <v>93</v>
       </c>
       <c r="D306" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E306">
         <v>530</v>
@@ -24584,7 +24597,7 @@
         <v>93</v>
       </c>
       <c r="D307" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E307">
         <v>631</v>
@@ -24619,7 +24632,7 @@
         <v>93</v>
       </c>
       <c r="D308" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E308">
         <v>629</v>
@@ -24654,7 +24667,7 @@
         <v>93</v>
       </c>
       <c r="D309" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E309">
         <v>105</v>
@@ -24689,7 +24702,7 @@
         <v>93</v>
       </c>
       <c r="D310" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E310">
         <v>95</v>
@@ -24724,7 +24737,7 @@
         <v>93</v>
       </c>
       <c r="D311" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E311">
         <v>457</v>
@@ -24759,7 +24772,7 @@
         <v>93</v>
       </c>
       <c r="D312" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E312">
         <v>517</v>
@@ -24794,7 +24807,7 @@
         <v>93</v>
       </c>
       <c r="D313" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E313">
         <v>673</v>
@@ -24829,7 +24842,7 @@
         <v>93</v>
       </c>
       <c r="D314" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E314">
         <v>126</v>
@@ -24864,7 +24877,7 @@
         <v>93</v>
       </c>
       <c r="D315" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E315">
         <v>125</v>
@@ -24899,7 +24912,7 @@
         <v>93</v>
       </c>
       <c r="D316" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E316">
         <v>608</v>
@@ -24934,7 +24947,7 @@
         <v>93</v>
       </c>
       <c r="D317" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E317">
         <v>103</v>
@@ -24969,7 +24982,7 @@
         <v>93</v>
       </c>
       <c r="D318" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E318">
         <v>564</v>
@@ -25004,7 +25017,7 @@
         <v>93</v>
       </c>
       <c r="D319" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E319">
         <v>678</v>
@@ -25039,7 +25052,7 @@
         <v>93</v>
       </c>
       <c r="D320" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E320">
         <v>701</v>
@@ -25074,7 +25087,7 @@
         <v>93</v>
       </c>
       <c r="D321" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E321">
         <v>719</v>
@@ -25109,7 +25122,7 @@
         <v>93</v>
       </c>
       <c r="D322" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E322">
         <v>533</v>
@@ -25144,7 +25157,7 @@
         <v>93</v>
       </c>
       <c r="D323" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E323">
         <v>560</v>
@@ -25179,7 +25192,7 @@
         <v>93</v>
       </c>
       <c r="D324" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E324">
         <v>699</v>
@@ -25214,7 +25227,7 @@
         <v>93</v>
       </c>
       <c r="D325" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E325">
         <v>132</v>
@@ -25249,7 +25262,7 @@
         <v>93</v>
       </c>
       <c r="D326" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E326">
         <v>127</v>
@@ -25284,7 +25297,7 @@
         <v>93</v>
       </c>
       <c r="D327" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E327">
         <v>611</v>
@@ -25319,7 +25332,7 @@
         <v>93</v>
       </c>
       <c r="D328" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E328">
         <v>718</v>
@@ -25354,7 +25367,7 @@
         <v>93</v>
       </c>
       <c r="D329" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E329">
         <v>702</v>
@@ -25389,7 +25402,7 @@
         <v>93</v>
       </c>
       <c r="D330" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E330">
         <v>134</v>
@@ -25424,7 +25437,7 @@
         <v>93</v>
       </c>
       <c r="D331" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E331">
         <v>33</v>
@@ -25459,7 +25472,7 @@
         <v>93</v>
       </c>
       <c r="D332" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E332">
         <v>466</v>
@@ -25494,7 +25507,7 @@
         <v>93</v>
       </c>
       <c r="D333" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E333">
         <v>109</v>
@@ -25529,7 +25542,7 @@
         <v>93</v>
       </c>
       <c r="D334" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E334">
         <v>664</v>
@@ -25564,7 +25577,7 @@
         <v>93</v>
       </c>
       <c r="D335" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E335">
         <v>46</v>
@@ -25599,7 +25612,7 @@
         <v>93</v>
       </c>
       <c r="D336" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E336">
         <v>532</v>
@@ -25634,7 +25647,7 @@
         <v>93</v>
       </c>
       <c r="D337" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E337">
         <v>338</v>
@@ -25669,7 +25682,7 @@
         <v>102</v>
       </c>
       <c r="D338" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E338">
         <v>495</v>
@@ -25704,7 +25717,7 @@
         <v>102</v>
       </c>
       <c r="D339" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E339">
         <v>738</v>
@@ -25739,7 +25752,7 @@
         <v>102</v>
       </c>
       <c r="D340" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E340">
         <v>689</v>
@@ -25774,7 +25787,7 @@
         <v>102</v>
       </c>
       <c r="D341" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E341">
         <v>737</v>
@@ -25809,13 +25822,13 @@
         <v>102</v>
       </c>
       <c r="D342" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E342">
         <v>205</v>
       </c>
       <c r="F342" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="G342">
         <v>2020</v>
@@ -25844,7 +25857,7 @@
         <v>102</v>
       </c>
       <c r="D343" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E343">
         <v>741</v>
@@ -25879,13 +25892,13 @@
         <v>102</v>
       </c>
       <c r="D344" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E344">
         <v>651</v>
       </c>
       <c r="F344" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="G344">
         <v>2020</v>
@@ -25914,7 +25927,7 @@
         <v>93</v>
       </c>
       <c r="D345" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E345">
         <v>222</v>
@@ -25949,7 +25962,7 @@
         <v>93</v>
       </c>
       <c r="D346" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="E346">
         <v>211</v>
@@ -25984,7 +25997,7 @@
         <v>102</v>
       </c>
       <c r="D347" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E347">
         <v>732</v>
@@ -26019,7 +26032,7 @@
         <v>93</v>
       </c>
       <c r="D348" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E348">
         <v>383</v>
@@ -26054,13 +26067,13 @@
         <v>93</v>
       </c>
       <c r="D349" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E349">
         <v>370</v>
       </c>
       <c r="F349" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G349">
         <v>2020</v>
@@ -26089,13 +26102,13 @@
         <v>93</v>
       </c>
       <c r="D350" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E350">
         <v>184</v>
       </c>
       <c r="F350" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="G350">
         <v>2020</v>
@@ -26124,7 +26137,7 @@
         <v>102</v>
       </c>
       <c r="D351" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E351">
         <v>545</v>
@@ -26159,7 +26172,7 @@
         <v>93</v>
       </c>
       <c r="D352" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E352">
         <v>168</v>
@@ -26194,7 +26207,7 @@
         <v>93</v>
       </c>
       <c r="D353" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E353">
         <v>554</v>
@@ -26229,7 +26242,7 @@
         <v>102</v>
       </c>
       <c r="D354" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E354">
         <v>546</v>
@@ -26264,7 +26277,7 @@
         <v>93</v>
       </c>
       <c r="D355" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E355">
         <v>82</v>
@@ -26299,7 +26312,7 @@
         <v>93</v>
       </c>
       <c r="D356" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E356">
         <v>161</v>
@@ -26334,7 +26347,7 @@
         <v>93</v>
       </c>
       <c r="D357" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E357">
         <v>319</v>
@@ -26369,7 +26382,7 @@
         <v>102</v>
       </c>
       <c r="D358" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="E358">
         <v>306</v>
@@ -26404,13 +26417,13 @@
         <v>102</v>
       </c>
       <c r="D359" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E359">
         <v>145</v>
       </c>
       <c r="F359" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="G359">
         <v>2020</v>
@@ -26439,7 +26452,7 @@
         <v>93</v>
       </c>
       <c r="D360" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E360">
         <v>29</v>
@@ -26474,7 +26487,7 @@
         <v>93</v>
       </c>
       <c r="D361" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E361">
         <v>106</v>
@@ -26509,7 +26522,7 @@
         <v>93</v>
       </c>
       <c r="D362" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E362">
         <v>534</v>
@@ -26544,7 +26557,7 @@
         <v>93</v>
       </c>
       <c r="D363" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E363">
         <v>435</v>
@@ -26579,7 +26592,7 @@
         <v>93</v>
       </c>
       <c r="D364" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E364">
         <v>671</v>
@@ -26614,7 +26627,7 @@
         <v>93</v>
       </c>
       <c r="D365" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E365">
         <v>717</v>
@@ -26649,7 +26662,7 @@
         <v>93</v>
       </c>
       <c r="D366" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E366">
         <v>335</v>
@@ -26684,7 +26697,7 @@
         <v>93</v>
       </c>
       <c r="D367" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E367">
         <v>151</v>
@@ -26719,7 +26732,7 @@
         <v>93</v>
       </c>
       <c r="D368" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E368">
         <v>470</v>
@@ -26754,7 +26767,7 @@
         <v>93</v>
       </c>
       <c r="D369" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E369">
         <v>137</v>
@@ -26789,7 +26802,7 @@
         <v>93</v>
       </c>
       <c r="D370" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E370">
         <v>616</v>
@@ -26824,7 +26837,7 @@
         <v>93</v>
       </c>
       <c r="D371" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E371">
         <v>230</v>
@@ -26859,7 +26872,7 @@
         <v>93</v>
       </c>
       <c r="D372" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E372">
         <v>215</v>
@@ -26894,7 +26907,7 @@
         <v>93</v>
       </c>
       <c r="D373" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E373">
         <v>104</v>
@@ -26929,7 +26942,7 @@
         <v>93</v>
       </c>
       <c r="D374" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E374">
         <v>681</v>
@@ -26964,7 +26977,7 @@
         <v>93</v>
       </c>
       <c r="D375" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E375">
         <v>528</v>
@@ -26999,7 +27012,7 @@
         <v>93</v>
       </c>
       <c r="D376" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E376">
         <v>723</v>
@@ -27034,7 +27047,7 @@
         <v>102</v>
       </c>
       <c r="D377" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="E377">
         <v>360</v>
@@ -27069,7 +27082,7 @@
         <v>93</v>
       </c>
       <c r="D378" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E378">
         <v>347</v>
@@ -27104,7 +27117,7 @@
         <v>93</v>
       </c>
       <c r="D379" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E379">
         <v>346</v>
@@ -27139,7 +27152,7 @@
         <v>93</v>
       </c>
       <c r="D380" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E380">
         <v>422</v>
@@ -27174,7 +27187,7 @@
         <v>93</v>
       </c>
       <c r="D381" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E381">
         <v>463</v>
@@ -27209,7 +27222,7 @@
         <v>93</v>
       </c>
       <c r="D382" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E382">
         <v>606</v>
@@ -27244,7 +27257,7 @@
         <v>102</v>
       </c>
       <c r="D383" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="E383">
         <v>653</v>
@@ -27279,7 +27292,7 @@
         <v>93</v>
       </c>
       <c r="D384" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E384">
         <v>16</v>
@@ -27314,7 +27327,7 @@
         <v>93</v>
       </c>
       <c r="D385" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E385">
         <v>50</v>
@@ -27349,7 +27362,7 @@
         <v>93</v>
       </c>
       <c r="D386" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E386">
         <v>249</v>
@@ -27384,7 +27397,7 @@
         <v>93</v>
       </c>
       <c r="D387" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E387">
         <v>436</v>
@@ -27419,7 +27432,7 @@
         <v>93</v>
       </c>
       <c r="D388" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E388">
         <v>111</v>
@@ -27454,7 +27467,7 @@
         <v>93</v>
       </c>
       <c r="D389" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E389">
         <v>217</v>
@@ -27489,7 +27502,7 @@
         <v>93</v>
       </c>
       <c r="D390" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E390">
         <v>729</v>
@@ -27524,7 +27537,7 @@
         <v>102</v>
       </c>
       <c r="D391" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="E391">
         <v>726</v>
@@ -27559,7 +27572,7 @@
         <v>93</v>
       </c>
       <c r="D392" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E392">
         <v>674</v>
@@ -27594,7 +27607,7 @@
         <v>93</v>
       </c>
       <c r="D393" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E393">
         <v>390</v>
@@ -27629,7 +27642,7 @@
         <v>93</v>
       </c>
       <c r="D394" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E394">
         <v>566</v>
@@ -27664,7 +27677,7 @@
         <v>93</v>
       </c>
       <c r="D395" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E395">
         <v>529</v>
@@ -27699,7 +27712,7 @@
         <v>102</v>
       </c>
       <c r="D396" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="E396">
         <v>654</v>
@@ -27734,7 +27747,7 @@
         <v>102</v>
       </c>
       <c r="D397" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="E397">
         <v>361</v>
@@ -27769,7 +27782,7 @@
         <v>93</v>
       </c>
       <c r="D398" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E398">
         <v>74</v>
@@ -27804,13 +27817,13 @@
         <v>102</v>
       </c>
       <c r="D399" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E399">
         <v>59</v>
       </c>
       <c r="F399" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G399">
         <v>2020</v>
@@ -27839,7 +27852,7 @@
         <v>102</v>
       </c>
       <c r="D400" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E400">
         <v>327</v>
@@ -27874,7 +27887,7 @@
         <v>102</v>
       </c>
       <c r="D401" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E401">
         <v>579</v>
@@ -27909,7 +27922,7 @@
         <v>93</v>
       </c>
       <c r="D402" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="E402">
         <v>378</v>
@@ -27944,13 +27957,13 @@
         <v>93</v>
       </c>
       <c r="D403" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="E403">
         <v>359</v>
       </c>
       <c r="F403" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G403">
         <v>2020</v>
@@ -27979,7 +27992,7 @@
         <v>102</v>
       </c>
       <c r="D404" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="E404">
         <v>236</v>
@@ -28014,7 +28027,7 @@
         <v>93</v>
       </c>
       <c r="D405" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E405">
         <v>452</v>
@@ -28049,7 +28062,7 @@
         <v>93</v>
       </c>
       <c r="D406" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E406">
         <v>223</v>
@@ -28084,13 +28097,13 @@
         <v>93</v>
       </c>
       <c r="D407" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E407">
         <v>192</v>
       </c>
       <c r="F407" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="G407">
         <v>2020</v>
@@ -28119,7 +28132,7 @@
         <v>93</v>
       </c>
       <c r="D408" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E408">
         <v>382</v>
@@ -28154,7 +28167,7 @@
         <v>93</v>
       </c>
       <c r="D409" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E409">
         <v>22</v>
@@ -28189,13 +28202,13 @@
         <v>93</v>
       </c>
       <c r="D410" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E410">
         <v>176</v>
       </c>
       <c r="F410" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G410">
         <v>2020</v>
@@ -28224,7 +28237,7 @@
         <v>93</v>
       </c>
       <c r="D411" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E411">
         <v>21</v>
@@ -28259,7 +28272,7 @@
         <v>93</v>
       </c>
       <c r="D412" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="E412">
         <v>595</v>
@@ -28294,7 +28307,7 @@
         <v>93</v>
       </c>
       <c r="D413" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E413">
         <v>20</v>
@@ -28329,7 +28342,7 @@
         <v>93</v>
       </c>
       <c r="D414" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E414">
         <v>320</v>
@@ -28364,7 +28377,7 @@
         <v>93</v>
       </c>
       <c r="D415" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E415">
         <v>160</v>
@@ -28399,7 +28412,7 @@
         <v>93</v>
       </c>
       <c r="D416" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E416">
         <v>317</v>
@@ -28434,7 +28447,7 @@
         <v>93</v>
       </c>
       <c r="D417" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="E417">
         <v>313</v>
@@ -28469,7 +28482,7 @@
         <v>93</v>
       </c>
       <c r="D418" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E418">
         <v>154</v>
@@ -28504,7 +28517,7 @@
         <v>102</v>
       </c>
       <c r="D419" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="E419">
         <v>303</v>
@@ -28539,7 +28552,7 @@
         <v>102</v>
       </c>
       <c r="D420" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="E420">
         <v>276</v>
@@ -28574,7 +28587,7 @@
         <v>102</v>
       </c>
       <c r="D421" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="E421">
         <v>725</v>
@@ -28609,7 +28622,7 @@
         <v>102</v>
       </c>
       <c r="D422" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="E422">
         <v>645</v>
@@ -28644,7 +28657,7 @@
         <v>134</v>
       </c>
       <c r="D423" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E423">
         <v>748</v>
@@ -28679,7 +28692,7 @@
         <v>134</v>
       </c>
       <c r="D424" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E424">
         <v>639</v>
@@ -28714,7 +28727,7 @@
         <v>134</v>
       </c>
       <c r="D425" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E425">
         <v>713</v>
@@ -28749,7 +28762,7 @@
         <v>134</v>
       </c>
       <c r="D426" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E426">
         <v>712</v>
@@ -28784,13 +28797,13 @@
         <v>13</v>
       </c>
       <c r="D427" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E427">
         <v>204</v>
       </c>
       <c r="F427" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="G427">
         <v>2020</v>
@@ -28819,13 +28832,13 @@
         <v>134</v>
       </c>
       <c r="D428" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E428">
         <v>199</v>
       </c>
       <c r="F428" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G428">
         <v>2020</v>
@@ -28854,7 +28867,7 @@
         <v>134</v>
       </c>
       <c r="D429" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E429">
         <v>393</v>
@@ -28889,7 +28902,7 @@
         <v>134</v>
       </c>
       <c r="D430" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E430">
         <v>391</v>
@@ -28924,7 +28937,7 @@
         <v>134</v>
       </c>
       <c r="D431" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E431">
         <v>641</v>
@@ -28959,7 +28972,7 @@
         <v>13</v>
       </c>
       <c r="D432" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E432">
         <v>510</v>
@@ -28994,7 +29007,7 @@
         <v>13</v>
       </c>
       <c r="D433" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E433">
         <v>508</v>
@@ -29029,7 +29042,7 @@
         <v>134</v>
       </c>
       <c r="D434" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E434">
         <v>282</v>
@@ -29064,7 +29077,7 @@
         <v>134</v>
       </c>
       <c r="D435" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E435">
         <v>281</v>
@@ -29099,7 +29112,7 @@
         <v>134</v>
       </c>
       <c r="D436" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E436">
         <v>280</v>
@@ -29134,7 +29147,7 @@
         <v>134</v>
       </c>
       <c r="D437" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E437">
         <v>130</v>
@@ -29169,7 +29182,7 @@
         <v>134</v>
       </c>
       <c r="D438" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E438">
         <v>129</v>
@@ -29190,7 +29203,7 @@
         <v>5.87</v>
       </c>
       <c r="K438" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.35">
@@ -29204,7 +29217,7 @@
         <v>134</v>
       </c>
       <c r="D439" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E439">
         <v>750</v>
@@ -29239,7 +29252,7 @@
         <v>93</v>
       </c>
       <c r="D440" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E440">
         <v>232</v>
@@ -29274,7 +29287,7 @@
         <v>93</v>
       </c>
       <c r="D441" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E441">
         <v>14</v>
@@ -29309,7 +29322,7 @@
         <v>93</v>
       </c>
       <c r="D442" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E442">
         <v>214</v>
@@ -29344,7 +29357,7 @@
         <v>93</v>
       </c>
       <c r="D443" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E443">
         <v>334</v>
@@ -29379,7 +29392,7 @@
         <v>134</v>
       </c>
       <c r="D444" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E444">
         <v>749</v>
@@ -29414,13 +29427,13 @@
         <v>134</v>
       </c>
       <c r="D445" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E445">
         <v>201</v>
       </c>
       <c r="F445" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G445">
         <v>2020</v>
@@ -29449,7 +29462,7 @@
         <v>134</v>
       </c>
       <c r="D446" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E446">
         <v>392</v>
@@ -29484,7 +29497,7 @@
         <v>134</v>
       </c>
       <c r="D447" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E447">
         <v>640</v>
@@ -29519,7 +29532,7 @@
         <v>134</v>
       </c>
       <c r="D448" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E448">
         <v>284</v>
@@ -29554,13 +29567,13 @@
         <v>93</v>
       </c>
       <c r="D449" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="E449">
         <v>193</v>
       </c>
       <c r="F449" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G449">
         <v>2020</v>
@@ -29589,7 +29602,7 @@
         <v>93</v>
       </c>
       <c r="D450" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="E450">
         <v>377</v>
@@ -29624,7 +29637,7 @@
         <v>93</v>
       </c>
       <c r="D451" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="E451">
         <v>183</v>
@@ -29659,7 +29672,7 @@
         <v>93</v>
       </c>
       <c r="D452" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="E452">
         <v>555</v>
@@ -29694,13 +29707,13 @@
         <v>93</v>
       </c>
       <c r="D453" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="E453">
         <v>647</v>
       </c>
       <c r="F453" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G453">
         <v>2020</v>
@@ -29729,13 +29742,13 @@
         <v>93</v>
       </c>
       <c r="D454" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="E454">
         <v>646</v>
       </c>
       <c r="F454" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G454">
         <v>2020</v>
@@ -29764,7 +29777,7 @@
         <v>93</v>
       </c>
       <c r="D455" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="E455">
         <v>747</v>
@@ -29799,7 +29812,7 @@
         <v>93</v>
       </c>
       <c r="D456" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="E456">
         <v>683</v>
@@ -29834,7 +29847,7 @@
         <v>93</v>
       </c>
       <c r="D457" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="E457">
         <v>619</v>
@@ -29869,7 +29882,7 @@
         <v>93</v>
       </c>
       <c r="D458" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="E458">
         <v>414</v>
@@ -29904,7 +29917,7 @@
         <v>159</v>
       </c>
       <c r="D459" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="E459">
         <v>406</v>
@@ -29939,7 +29952,7 @@
         <v>93</v>
       </c>
       <c r="D460" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="E460">
         <v>365</v>
@@ -29974,7 +29987,7 @@
         <v>93</v>
       </c>
       <c r="D461" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="E461">
         <v>538</v>
@@ -30009,7 +30022,7 @@
         <v>159</v>
       </c>
       <c r="D462" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="E462">
         <v>297</v>
@@ -30044,7 +30057,7 @@
         <v>93</v>
       </c>
       <c r="D463" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="E463">
         <v>293</v>
@@ -30079,7 +30092,7 @@
         <v>93</v>
       </c>
       <c r="D464" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="E464">
         <v>131</v>
@@ -30114,7 +30127,7 @@
         <v>159</v>
       </c>
       <c r="D465" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E465">
         <v>476</v>
@@ -30149,7 +30162,7 @@
         <v>159</v>
       </c>
       <c r="D466" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E466">
         <v>401</v>
@@ -30184,7 +30197,7 @@
         <v>159</v>
       </c>
       <c r="D467" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E467">
         <v>271</v>
@@ -30219,7 +30232,7 @@
         <v>93</v>
       </c>
       <c r="D468" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="E468">
         <v>491</v>
@@ -30254,7 +30267,7 @@
         <v>93</v>
       </c>
       <c r="D469" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="E469">
         <v>635</v>
@@ -30289,7 +30302,7 @@
         <v>102</v>
       </c>
       <c r="D470" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="E470">
         <v>309</v>
@@ -30324,7 +30337,7 @@
         <v>93</v>
       </c>
       <c r="D471" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="E471">
         <v>753</v>
@@ -30359,7 +30372,7 @@
         <v>93</v>
       </c>
       <c r="D472" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="E472">
         <v>240</v>
@@ -30394,7 +30407,7 @@
         <v>93</v>
       </c>
       <c r="D473" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="E473">
         <v>239</v>
@@ -30429,13 +30442,13 @@
         <v>93</v>
       </c>
       <c r="D474" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="E474">
         <v>208</v>
       </c>
       <c r="F474" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="G474">
         <v>2020</v>
@@ -30464,7 +30477,7 @@
         <v>93</v>
       </c>
       <c r="D475" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E475">
         <v>716</v>
@@ -30499,7 +30512,7 @@
         <v>93</v>
       </c>
       <c r="D476" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E476">
         <v>434</v>
@@ -30534,7 +30547,7 @@
         <v>93</v>
       </c>
       <c r="D477" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E477">
         <v>613</v>
@@ -30569,7 +30582,7 @@
         <v>93</v>
       </c>
       <c r="D478" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E478">
         <v>140</v>
@@ -30604,7 +30617,7 @@
         <v>93</v>
       </c>
       <c r="D479" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E479">
         <v>34</v>
@@ -30639,7 +30652,7 @@
         <v>93</v>
       </c>
       <c r="D480" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E480">
         <v>260</v>
@@ -30674,7 +30687,7 @@
         <v>93</v>
       </c>
       <c r="D481" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E481">
         <v>118</v>
@@ -30709,7 +30722,7 @@
         <v>93</v>
       </c>
       <c r="D482" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E482">
         <v>429</v>
@@ -30744,7 +30757,7 @@
         <v>93</v>
       </c>
       <c r="D483" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E483">
         <v>670</v>
@@ -30779,7 +30792,7 @@
         <v>93</v>
       </c>
       <c r="D484" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E484">
         <v>524</v>
@@ -30814,7 +30827,7 @@
         <v>93</v>
       </c>
       <c r="D485" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E485">
         <v>565</v>
@@ -30849,7 +30862,7 @@
         <v>93</v>
       </c>
       <c r="D486" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E486">
         <v>75</v>
@@ -30884,7 +30897,7 @@
         <v>93</v>
       </c>
       <c r="D487" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E487">
         <v>247</v>
@@ -30905,7 +30918,7 @@
         <v>3.68</v>
       </c>
       <c r="K487" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.35">
@@ -30919,7 +30932,7 @@
         <v>93</v>
       </c>
       <c r="D488" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E488">
         <v>220</v>
@@ -30940,7 +30953,7 @@
         <v>2.35</v>
       </c>
       <c r="K488" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.35">
@@ -30954,7 +30967,7 @@
         <v>93</v>
       </c>
       <c r="D489" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E489">
         <v>440</v>
@@ -30989,7 +31002,7 @@
         <v>93</v>
       </c>
       <c r="D490" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E490">
         <v>216</v>
@@ -31010,7 +31023,7 @@
         <v>2.14</v>
       </c>
       <c r="K490" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.35">
@@ -31024,7 +31037,7 @@
         <v>93</v>
       </c>
       <c r="D491" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E491">
         <v>386</v>
@@ -31045,7 +31058,7 @@
         <v>8.48</v>
       </c>
       <c r="K491" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.35">
@@ -31059,7 +31072,7 @@
         <v>93</v>
       </c>
       <c r="D492" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E492">
         <v>156</v>
@@ -31094,7 +31107,7 @@
         <v>93</v>
       </c>
       <c r="D493" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E493">
         <v>18</v>
@@ -31129,7 +31142,7 @@
         <v>93</v>
       </c>
       <c r="D494" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E494">
         <v>148</v>
@@ -31164,7 +31177,7 @@
         <v>93</v>
       </c>
       <c r="D495" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E495">
         <v>289</v>
@@ -31185,7 +31198,7 @@
         <v>4.55</v>
       </c>
       <c r="K495" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.35">
@@ -31199,7 +31212,7 @@
         <v>93</v>
       </c>
       <c r="D496" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E496">
         <v>267</v>
@@ -31234,7 +31247,7 @@
         <v>93</v>
       </c>
       <c r="D497" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E497">
         <v>9</v>
@@ -31269,7 +31282,7 @@
         <v>102</v>
       </c>
       <c r="D498" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E498">
         <v>299</v>
@@ -31304,7 +31317,7 @@
         <v>102</v>
       </c>
       <c r="D499" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E499">
         <v>150</v>
@@ -31339,7 +31352,7 @@
         <v>93</v>
       </c>
       <c r="D500" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E500">
         <v>231</v>
@@ -31374,7 +31387,7 @@
         <v>93</v>
       </c>
       <c r="D501" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E501">
         <v>231</v>
@@ -31409,7 +31422,7 @@
         <v>93</v>
       </c>
       <c r="D502" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E502">
         <v>213</v>
@@ -31444,7 +31457,7 @@
         <v>93</v>
       </c>
       <c r="D503" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E503">
         <v>13</v>
@@ -31479,7 +31492,7 @@
         <v>93</v>
       </c>
       <c r="D504" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E504">
         <v>336</v>
@@ -31514,7 +31527,7 @@
         <v>93</v>
       </c>
       <c r="D505" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E505">
         <v>292</v>
@@ -31549,7 +31562,7 @@
         <v>93</v>
       </c>
       <c r="D506" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E506">
         <v>116</v>
@@ -31584,7 +31597,7 @@
         <v>93</v>
       </c>
       <c r="D507" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E507">
         <v>462</v>
@@ -31619,7 +31632,7 @@
         <v>93</v>
       </c>
       <c r="D508" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E508">
         <v>676</v>
@@ -31654,7 +31667,7 @@
         <v>93</v>
       </c>
       <c r="D509" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E509">
         <v>55</v>
@@ -31689,7 +31702,7 @@
         <v>93</v>
       </c>
       <c r="D510" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E510">
         <v>345</v>
@@ -31724,7 +31737,7 @@
         <v>93</v>
       </c>
       <c r="D511" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E511">
         <v>522</v>
@@ -31759,13 +31772,13 @@
         <v>102</v>
       </c>
       <c r="D512" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="E512">
         <v>188</v>
       </c>
       <c r="F512" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="G512">
         <v>2020</v>
@@ -31794,13 +31807,13 @@
         <v>102</v>
       </c>
       <c r="D513" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="E513">
         <v>187</v>
       </c>
       <c r="F513" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="G513">
         <v>2020</v>
@@ -31829,13 +31842,13 @@
         <v>102</v>
       </c>
       <c r="D514" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="E514">
         <v>367</v>
       </c>
       <c r="F514" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G514">
         <v>2020</v>
@@ -31864,7 +31877,7 @@
         <v>102</v>
       </c>
       <c r="D515" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="E515">
         <v>350</v>
@@ -31899,7 +31912,7 @@
         <v>102</v>
       </c>
       <c r="D516" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="E516">
         <v>709</v>
@@ -31934,7 +31947,7 @@
         <v>102</v>
       </c>
       <c r="D517" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="E517">
         <v>589</v>
@@ -31969,7 +31982,7 @@
         <v>102</v>
       </c>
       <c r="D518" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E518">
         <v>577</v>
@@ -32004,7 +32017,7 @@
         <v>102</v>
       </c>
       <c r="D519" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="E519">
         <v>552</v>
@@ -32039,7 +32052,7 @@
         <v>93</v>
       </c>
       <c r="D520" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="E520">
         <v>379</v>
@@ -32074,7 +32087,7 @@
         <v>93</v>
       </c>
       <c r="D521" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E521">
         <v>700</v>
@@ -32109,7 +32122,7 @@
         <v>93</v>
       </c>
       <c r="D522" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E522">
         <v>456</v>
@@ -32144,7 +32157,7 @@
         <v>93</v>
       </c>
       <c r="D523" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E523">
         <v>441</v>
@@ -32179,7 +32192,7 @@
         <v>93</v>
       </c>
       <c r="D524" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E524">
         <v>630</v>
@@ -32214,7 +32227,7 @@
         <v>93</v>
       </c>
       <c r="D525" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E525">
         <v>96</v>
@@ -32249,7 +32262,7 @@
         <v>93</v>
       </c>
       <c r="D526" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E526">
         <v>612</v>
@@ -32284,7 +32297,7 @@
         <v>93</v>
       </c>
       <c r="D527" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E527">
         <v>373</v>
@@ -32319,7 +32332,7 @@
         <v>93</v>
       </c>
       <c r="D528" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E528">
         <v>91</v>
@@ -32354,7 +32367,7 @@
         <v>93</v>
       </c>
       <c r="D529" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E529">
         <v>668</v>
@@ -32389,7 +32402,7 @@
         <v>93</v>
       </c>
       <c r="D530" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E530">
         <v>141</v>
@@ -32424,7 +32437,7 @@
         <v>93</v>
       </c>
       <c r="D531" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E531">
         <v>559</v>
@@ -32459,7 +32472,7 @@
         <v>93</v>
       </c>
       <c r="D532" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E532">
         <v>526</v>
@@ -32494,7 +32507,7 @@
         <v>93</v>
       </c>
       <c r="D533" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E533">
         <v>515</v>
@@ -32529,7 +32542,7 @@
         <v>93</v>
       </c>
       <c r="D534" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E534">
         <v>677</v>
@@ -32564,7 +32577,7 @@
         <v>93</v>
       </c>
       <c r="D535" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E535">
         <v>460</v>
@@ -32599,7 +32612,7 @@
         <v>93</v>
       </c>
       <c r="D536" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E536">
         <v>458</v>
@@ -32634,7 +32647,7 @@
         <v>93</v>
       </c>
       <c r="D537" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E537">
         <v>54</v>
@@ -32669,7 +32682,7 @@
         <v>93</v>
       </c>
       <c r="D538" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E538">
         <v>108</v>
@@ -32704,7 +32717,7 @@
         <v>93</v>
       </c>
       <c r="D539" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E539">
         <v>425</v>
@@ -32739,7 +32752,7 @@
         <v>93</v>
       </c>
       <c r="D540" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E540">
         <v>48</v>
@@ -32774,7 +32787,7 @@
         <v>93</v>
       </c>
       <c r="D541" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E541">
         <v>667</v>
@@ -32809,7 +32822,7 @@
         <v>93</v>
       </c>
       <c r="D542" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E542">
         <v>344</v>
@@ -32830,7 +32843,7 @@
         <v>1.4</v>
       </c>
       <c r="K542" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.35">
@@ -32844,7 +32857,7 @@
         <v>93</v>
       </c>
       <c r="D543" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E543">
         <v>339</v>
@@ -32865,7 +32878,7 @@
         <v>2.09</v>
       </c>
       <c r="K543" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.35">
@@ -32879,7 +32892,7 @@
         <v>93</v>
       </c>
       <c r="D544" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E544">
         <v>721</v>
@@ -32914,7 +32927,7 @@
         <v>93</v>
       </c>
       <c r="D545" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E545">
         <v>745</v>
@@ -32949,7 +32962,7 @@
         <v>93</v>
       </c>
       <c r="D546" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E546">
         <v>604</v>
@@ -32984,7 +32997,7 @@
         <v>93</v>
       </c>
       <c r="D547" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E547">
         <v>32</v>
@@ -33019,7 +33032,7 @@
         <v>93</v>
       </c>
       <c r="D548" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E548">
         <v>521</v>
@@ -33054,7 +33067,7 @@
         <v>93</v>
       </c>
       <c r="D549" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E549">
         <v>258</v>
@@ -33089,7 +33102,7 @@
         <v>93</v>
       </c>
       <c r="D550" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E550">
         <v>516</v>
@@ -33124,7 +33137,7 @@
         <v>93</v>
       </c>
       <c r="D551" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E551">
         <v>135</v>
@@ -33159,7 +33172,7 @@
         <v>93</v>
       </c>
       <c r="D552" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E552">
         <v>714</v>
@@ -33194,7 +33207,7 @@
         <v>93</v>
       </c>
       <c r="D553" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E553">
         <v>461</v>
@@ -33229,7 +33242,7 @@
         <v>93</v>
       </c>
       <c r="D554" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E554">
         <v>49</v>
@@ -33264,7 +33277,7 @@
         <v>93</v>
       </c>
       <c r="D555" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E555">
         <v>615</v>
@@ -33299,7 +33312,7 @@
         <v>93</v>
       </c>
       <c r="D556" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E556">
         <v>342</v>
@@ -33334,7 +33347,7 @@
         <v>93</v>
       </c>
       <c r="D557" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E557">
         <v>138</v>
@@ -33369,7 +33382,7 @@
         <v>93</v>
       </c>
       <c r="D558" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="E558">
         <v>415</v>
@@ -33404,7 +33417,7 @@
         <v>159</v>
       </c>
       <c r="D559" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="E559">
         <v>405</v>
@@ -33439,7 +33452,7 @@
         <v>93</v>
       </c>
       <c r="D560" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="E560">
         <v>364</v>
@@ -33474,7 +33487,7 @@
         <v>93</v>
       </c>
       <c r="D561" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="E561">
         <v>618</v>
@@ -33509,7 +33522,7 @@
         <v>93</v>
       </c>
       <c r="D562" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="E562">
         <v>684</v>
@@ -33544,7 +33557,7 @@
         <v>159</v>
       </c>
       <c r="D563" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="E563">
         <v>298</v>
@@ -33579,7 +33592,7 @@
         <v>93</v>
       </c>
       <c r="D564" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="E564">
         <v>746</v>
@@ -33614,7 +33627,7 @@
         <v>93</v>
       </c>
       <c r="D565" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="E565">
         <v>294</v>
@@ -33649,7 +33662,7 @@
         <v>93</v>
       </c>
       <c r="D566" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="E566">
         <v>539</v>
@@ -33684,7 +33697,7 @@
         <v>102</v>
       </c>
       <c r="D567" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E567">
         <v>144</v>
@@ -33719,7 +33732,7 @@
         <v>102</v>
       </c>
       <c r="D568" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E568">
         <v>143</v>
@@ -33754,7 +33767,7 @@
         <v>93</v>
       </c>
       <c r="D569" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="E569">
         <v>492</v>
@@ -33789,7 +33802,7 @@
         <v>93</v>
       </c>
       <c r="D570" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="E570">
         <v>450</v>
@@ -33824,7 +33837,7 @@
         <v>93</v>
       </c>
       <c r="D571" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="E571">
         <v>384</v>
@@ -33859,7 +33872,7 @@
         <v>93</v>
       </c>
       <c r="D572" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="E572">
         <v>84</v>
@@ -33894,13 +33907,13 @@
         <v>93</v>
       </c>
       <c r="D573" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="E573">
         <v>332</v>
       </c>
       <c r="F573" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G573">
         <v>2020</v>
@@ -33929,7 +33942,7 @@
         <v>102</v>
       </c>
       <c r="D574" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E574">
         <v>42</v>
@@ -33964,7 +33977,7 @@
         <v>102</v>
       </c>
       <c r="D575" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E575">
         <v>41</v>
@@ -33999,7 +34012,7 @@
         <v>93</v>
       </c>
       <c r="D576" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E576">
         <v>112</v>
@@ -34034,7 +34047,7 @@
         <v>93</v>
       </c>
       <c r="D577" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E577">
         <v>427</v>
@@ -34069,7 +34082,7 @@
         <v>93</v>
       </c>
       <c r="D578" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E578">
         <v>25</v>
@@ -34104,7 +34117,7 @@
         <v>93</v>
       </c>
       <c r="D579" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E579">
         <v>661</v>
@@ -34139,7 +34152,7 @@
         <v>93</v>
       </c>
       <c r="D580" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E580">
         <v>262</v>
@@ -34174,7 +34187,7 @@
         <v>93</v>
       </c>
       <c r="D581" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E581">
         <v>519</v>
@@ -34209,7 +34222,7 @@
         <v>93</v>
       </c>
       <c r="D582" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E582">
         <v>246</v>
@@ -34244,7 +34257,7 @@
         <v>93</v>
       </c>
       <c r="D583" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E583">
         <v>27</v>
@@ -34279,7 +34292,7 @@
         <v>93</v>
       </c>
       <c r="D584" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E584">
         <v>375</v>
@@ -34314,7 +34327,7 @@
         <v>93</v>
       </c>
       <c r="D585" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E585">
         <v>10</v>
@@ -34349,7 +34362,7 @@
         <v>93</v>
       </c>
       <c r="D586" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E586">
         <v>17</v>
@@ -34384,7 +34397,7 @@
         <v>93</v>
       </c>
       <c r="D587" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E587">
         <v>266</v>
@@ -34419,7 +34432,7 @@
         <v>102</v>
       </c>
       <c r="D588" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="E588">
         <v>600</v>
@@ -34454,7 +34467,7 @@
         <v>102</v>
       </c>
       <c r="D589" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="E589">
         <v>94</v>
@@ -34489,13 +34502,13 @@
         <v>102</v>
       </c>
       <c r="D590" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="E590">
         <v>175</v>
       </c>
       <c r="F590" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="G590">
         <v>2020</v>
@@ -34524,7 +34537,7 @@
         <v>102</v>
       </c>
       <c r="D591" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="E591">
         <v>536</v>
@@ -34559,7 +34572,7 @@
         <v>102</v>
       </c>
       <c r="D592" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E592">
         <v>740</v>
@@ -34594,7 +34607,7 @@
         <v>102</v>
       </c>
       <c r="D593" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E593">
         <v>685</v>
@@ -34629,7 +34642,7 @@
         <v>102</v>
       </c>
       <c r="D594" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E594">
         <v>739</v>
@@ -34664,7 +34677,7 @@
         <v>93</v>
       </c>
       <c r="D595" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E595">
         <v>469</v>
@@ -34699,7 +34712,7 @@
         <v>93</v>
       </c>
       <c r="D596" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E596">
         <v>117</v>
@@ -34734,7 +34747,7 @@
         <v>93</v>
       </c>
       <c r="D597" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E597">
         <v>680</v>
@@ -34769,7 +34782,7 @@
         <v>93</v>
       </c>
       <c r="D598" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E598">
         <v>97</v>
@@ -34804,7 +34817,7 @@
         <v>93</v>
       </c>
       <c r="D599" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E599">
         <v>636</v>
@@ -34839,7 +34852,7 @@
         <v>93</v>
       </c>
       <c r="D600" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E600">
         <v>514</v>
@@ -34874,7 +34887,7 @@
         <v>102</v>
       </c>
       <c r="D601" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="E601">
         <v>482</v>
@@ -34909,7 +34922,7 @@
         <v>102</v>
       </c>
       <c r="D602" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E602">
         <v>736</v>
@@ -34944,13 +34957,13 @@
         <v>102</v>
       </c>
       <c r="D603" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="E603">
         <v>210</v>
       </c>
       <c r="F603" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="G603">
         <v>2020</v>
@@ -34979,7 +34992,7 @@
         <v>102</v>
       </c>
       <c r="D604" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E604">
         <v>688</v>
@@ -35014,7 +35027,7 @@
         <v>102</v>
       </c>
       <c r="D605" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="E605">
         <v>325</v>
@@ -35049,7 +35062,7 @@
         <v>102</v>
       </c>
       <c r="D606" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="E606">
         <v>78</v>
@@ -35084,7 +35097,7 @@
         <v>102</v>
       </c>
       <c r="D607" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E607">
         <v>621</v>
@@ -35119,7 +35132,7 @@
         <v>102</v>
       </c>
       <c r="D608" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E608">
         <v>142</v>
@@ -35154,7 +35167,7 @@
         <v>9</v>
       </c>
       <c r="D609" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E609">
         <v>15</v>
@@ -35189,7 +35202,7 @@
         <v>9</v>
       </c>
       <c r="D610" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E610">
         <v>233</v>
@@ -35224,7 +35237,7 @@
         <v>9</v>
       </c>
       <c r="D611" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E611">
         <v>212</v>
@@ -35259,7 +35272,7 @@
         <v>9</v>
       </c>
       <c r="D612" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E612">
         <v>6</v>
@@ -35294,7 +35307,7 @@
         <v>9</v>
       </c>
       <c r="D613" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E613">
         <v>333</v>
@@ -35329,7 +35342,7 @@
         <v>9</v>
       </c>
       <c r="D614" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E614">
         <v>290</v>
@@ -35364,7 +35377,7 @@
         <v>102</v>
       </c>
       <c r="D615" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="E615">
         <v>302</v>
@@ -35399,7 +35412,7 @@
         <v>9</v>
       </c>
       <c r="D616" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="E616">
         <v>254</v>
@@ -35434,7 +35447,7 @@
         <v>93</v>
       </c>
       <c r="D617" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="E617">
         <v>101</v>
@@ -35469,7 +35482,7 @@
         <v>9</v>
       </c>
       <c r="D618" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="E618">
         <v>5</v>
@@ -35504,7 +35517,7 @@
         <v>102</v>
       </c>
       <c r="D619" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E619">
         <v>733</v>
@@ -35539,7 +35552,7 @@
         <v>9</v>
       </c>
       <c r="D620" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="E620">
         <v>330</v>
@@ -35574,13 +35587,13 @@
         <v>102</v>
       </c>
       <c r="D621" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E621">
         <v>650</v>
       </c>
       <c r="F621" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="G621">
         <v>2020</v>
@@ -35609,7 +35622,7 @@
         <v>93</v>
       </c>
       <c r="D622" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="E622">
         <v>310</v>
@@ -35644,7 +35657,7 @@
         <v>102</v>
       </c>
       <c r="D623" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="E623">
         <v>304</v>
@@ -35679,7 +35692,7 @@
         <v>93</v>
       </c>
       <c r="D624" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="E624">
         <v>594</v>
@@ -35714,7 +35727,7 @@
         <v>102</v>
       </c>
       <c r="D625" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E625">
         <v>543</v>
@@ -35749,7 +35762,7 @@
         <v>9</v>
       </c>
       <c r="D626" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="E626">
         <v>253</v>
@@ -35784,7 +35797,7 @@
         <v>102</v>
       </c>
       <c r="D627" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="E627">
         <v>237</v>
@@ -35819,7 +35832,7 @@
         <v>9</v>
       </c>
       <c r="D628" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="E628">
         <v>4</v>
@@ -35854,13 +35867,13 @@
         <v>93</v>
       </c>
       <c r="D629" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E629">
         <v>177</v>
       </c>
       <c r="F629" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G629">
         <v>2020</v>
@@ -35889,7 +35902,7 @@
         <v>9</v>
       </c>
       <c r="D630" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="E630">
         <v>331</v>
@@ -35924,7 +35937,7 @@
         <v>93</v>
       </c>
       <c r="D631" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E631">
         <v>163</v>
@@ -35959,7 +35972,7 @@
         <v>93</v>
       </c>
       <c r="D632" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E632">
         <v>321</v>
@@ -35994,7 +36007,7 @@
         <v>102</v>
       </c>
       <c r="D633" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="E633">
         <v>277</v>
@@ -36029,7 +36042,7 @@
         <v>102</v>
       </c>
       <c r="D634" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="E634">
         <v>235</v>
@@ -36064,7 +36077,7 @@
         <v>102</v>
       </c>
       <c r="D635" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="E635">
         <v>278</v>
@@ -36099,7 +36112,7 @@
         <v>93</v>
       </c>
       <c r="D636" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E636">
         <v>438</v>
@@ -36134,7 +36147,7 @@
         <v>93</v>
       </c>
       <c r="D637" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E637">
         <v>720</v>
@@ -36169,7 +36182,7 @@
         <v>93</v>
       </c>
       <c r="D638" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E638">
         <v>23</v>
@@ -36204,7 +36217,7 @@
         <v>93</v>
       </c>
       <c r="D639" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E639">
         <v>609</v>
@@ -36239,7 +36252,7 @@
         <v>93</v>
       </c>
       <c r="D640" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E640">
         <v>136</v>
@@ -36274,7 +36287,7 @@
         <v>93</v>
       </c>
       <c r="D641" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E641">
         <v>259</v>
@@ -36309,13 +36322,13 @@
         <v>102</v>
       </c>
       <c r="D642" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="E642">
         <v>198</v>
       </c>
       <c r="F642" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="G642">
         <v>2020</v>
@@ -36344,7 +36357,7 @@
         <v>102</v>
       </c>
       <c r="D643" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="E643">
         <v>93</v>
@@ -36379,13 +36392,13 @@
         <v>102</v>
       </c>
       <c r="D644" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="E644">
         <v>174</v>
       </c>
       <c r="F644" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="G644">
         <v>2020</v>
@@ -36414,7 +36427,7 @@
         <v>102</v>
       </c>
       <c r="D645" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="E645">
         <v>599</v>
@@ -36449,7 +36462,7 @@
         <v>102</v>
       </c>
       <c r="D646" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="E646">
         <v>535</v>
@@ -36484,7 +36497,7 @@
         <v>102</v>
       </c>
       <c r="D647" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="E647">
         <v>234</v>
@@ -36519,7 +36532,7 @@
         <v>93</v>
       </c>
       <c r="D648" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E648">
         <v>228</v>
@@ -36554,7 +36567,7 @@
         <v>93</v>
       </c>
       <c r="D649" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E649">
         <v>224</v>
@@ -36589,7 +36602,7 @@
         <v>93</v>
       </c>
       <c r="D650" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E650">
         <v>358</v>
@@ -36624,7 +36637,7 @@
         <v>93</v>
       </c>
       <c r="D651" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E651">
         <v>167</v>
@@ -36659,7 +36672,7 @@
         <v>93</v>
       </c>
       <c r="D652" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E652">
         <v>11</v>
@@ -36694,7 +36707,7 @@
         <v>93</v>
       </c>
       <c r="D653" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E653">
         <v>162</v>
@@ -36729,7 +36742,7 @@
         <v>93</v>
       </c>
       <c r="D654" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E654">
         <v>318</v>
@@ -36764,7 +36777,7 @@
         <v>93</v>
       </c>
       <c r="D655" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E655">
         <v>153</v>
@@ -36799,7 +36812,7 @@
         <v>102</v>
       </c>
       <c r="D656" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="E656">
         <v>301</v>
@@ -36834,7 +36847,7 @@
         <v>102</v>
       </c>
       <c r="D657" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="E657">
         <v>279</v>
@@ -36869,7 +36882,7 @@
         <v>102</v>
       </c>
       <c r="D658" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="E658">
         <v>92</v>
@@ -36904,13 +36917,13 @@
         <v>102</v>
       </c>
       <c r="D659" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="E659">
         <v>173</v>
       </c>
       <c r="F659" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="G659">
         <v>2020</v>
@@ -36939,7 +36952,7 @@
         <v>102</v>
       </c>
       <c r="D660" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="E660">
         <v>598</v>
@@ -36974,7 +36987,7 @@
         <v>102</v>
       </c>
       <c r="D661" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="E661">
         <v>587</v>
@@ -37009,7 +37022,7 @@
         <v>102</v>
       </c>
       <c r="D662" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="E662">
         <v>537</v>
@@ -37044,7 +37057,7 @@
         <v>102</v>
       </c>
       <c r="D663" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="E663">
         <v>494</v>
@@ -37079,13 +37092,13 @@
         <v>102</v>
       </c>
       <c r="D664" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="E664">
         <v>197</v>
       </c>
       <c r="F664" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="G664">
         <v>2020</v>
@@ -37114,7 +37127,7 @@
         <v>93</v>
       </c>
       <c r="D665" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="E665">
         <v>449</v>
@@ -37149,7 +37162,7 @@
         <v>93</v>
       </c>
       <c r="D666" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="E666">
         <v>697</v>
@@ -37184,7 +37197,7 @@
         <v>93</v>
       </c>
       <c r="D667" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="E667">
         <v>633</v>
@@ -37219,7 +37232,7 @@
         <v>102</v>
       </c>
       <c r="D668" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="E668">
         <v>496</v>
@@ -37254,7 +37267,7 @@
         <v>93</v>
       </c>
       <c r="D669" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E669">
         <v>439</v>
@@ -37289,7 +37302,7 @@
         <v>93</v>
       </c>
       <c r="D670" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E670">
         <v>26</v>
@@ -37324,7 +37337,7 @@
         <v>93</v>
       </c>
       <c r="D671" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="E671">
         <v>411</v>
@@ -37359,7 +37372,7 @@
         <v>93</v>
       </c>
       <c r="D672" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E672">
         <v>102</v>
@@ -37394,7 +37407,7 @@
         <v>93</v>
       </c>
       <c r="D673" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="E673">
         <v>362</v>
@@ -37429,13 +37442,13 @@
         <v>93</v>
       </c>
       <c r="D674" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="E674">
         <v>172</v>
       </c>
       <c r="F674" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="G674">
         <v>2020</v>
@@ -37464,13 +37477,13 @@
         <v>93</v>
       </c>
       <c r="D675" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="E675">
         <v>171</v>
       </c>
       <c r="F675" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="G675">
         <v>2020</v>
@@ -37499,13 +37512,13 @@
         <v>93</v>
       </c>
       <c r="D676" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="E676">
         <v>170</v>
       </c>
       <c r="F676" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="G676">
         <v>2020</v>
@@ -37534,7 +37547,7 @@
         <v>93</v>
       </c>
       <c r="D677" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E677">
         <v>675</v>
@@ -37569,7 +37582,7 @@
         <v>93</v>
       </c>
       <c r="D678" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="E678">
         <v>85</v>
@@ -37604,7 +37617,7 @@
         <v>93</v>
       </c>
       <c r="D679" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="E679">
         <v>81</v>
@@ -37639,7 +37652,7 @@
         <v>93</v>
       </c>
       <c r="D680" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="E680">
         <v>581</v>
@@ -37674,7 +37687,7 @@
         <v>93</v>
       </c>
       <c r="D681" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="E681">
         <v>549</v>
@@ -37709,7 +37722,7 @@
         <v>93</v>
       </c>
       <c r="D682" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="E682">
         <v>548</v>
@@ -37744,7 +37757,7 @@
         <v>93</v>
       </c>
       <c r="D683" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="E683">
         <v>547</v>
@@ -37779,7 +37792,7 @@
         <v>93</v>
       </c>
       <c r="D684" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E684">
         <v>265</v>
@@ -37814,7 +37827,7 @@
         <v>93</v>
       </c>
       <c r="D685" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E685">
         <v>518</v>
@@ -37849,7 +37862,7 @@
         <v>93</v>
       </c>
       <c r="D686" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="E686">
         <v>63</v>
@@ -37884,7 +37897,7 @@
         <v>13</v>
       </c>
       <c r="D687" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="E687">
         <v>710</v>
@@ -37919,7 +37932,7 @@
         <v>13</v>
       </c>
       <c r="D688" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="E688">
         <v>649</v>
@@ -37954,7 +37967,7 @@
         <v>93</v>
       </c>
       <c r="D689" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="E689">
         <v>165</v>
@@ -37989,7 +38002,7 @@
         <v>93</v>
       </c>
       <c r="D690" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="E690">
         <v>550</v>
@@ -38024,7 +38037,7 @@
         <v>9</v>
       </c>
       <c r="D691" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E691">
         <v>464</v>
@@ -38059,7 +38072,7 @@
         <v>9</v>
       </c>
       <c r="D692" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E692">
         <v>52</v>
@@ -38094,7 +38107,7 @@
         <v>9</v>
       </c>
       <c r="D693" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E693">
         <v>715</v>
@@ -38129,7 +38142,7 @@
         <v>9</v>
       </c>
       <c r="D694" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E694">
         <v>337</v>
@@ -38164,7 +38177,7 @@
         <v>9</v>
       </c>
       <c r="D695" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E695">
         <v>614</v>
@@ -38199,7 +38212,7 @@
         <v>9</v>
       </c>
       <c r="D696" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E696">
         <v>139</v>
@@ -38234,7 +38247,7 @@
         <v>93</v>
       </c>
       <c r="D697" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="E697">
         <v>553</v>
@@ -38269,7 +38282,7 @@
         <v>93</v>
       </c>
       <c r="D698" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="E698">
         <v>512</v>
@@ -38304,7 +38317,7 @@
         <v>159</v>
       </c>
       <c r="D699" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E699">
         <v>500</v>
@@ -38339,7 +38352,7 @@
         <v>159</v>
       </c>
       <c r="D700" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E700">
         <v>402</v>
@@ -38374,7 +38387,7 @@
         <v>159</v>
       </c>
       <c r="D701" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E701">
         <v>352</v>
@@ -38409,13 +38422,13 @@
         <v>159</v>
       </c>
       <c r="D702" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E702">
         <v>690</v>
       </c>
       <c r="F702" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G702">
         <v>2020</v>
@@ -38444,7 +38457,7 @@
         <v>159</v>
       </c>
       <c r="D703" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E703">
         <v>584</v>
@@ -38479,7 +38492,7 @@
         <v>159</v>
       </c>
       <c r="D704" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E704">
         <v>285</v>
@@ -38514,7 +38527,7 @@
         <v>93</v>
       </c>
       <c r="D705" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="E705">
         <v>100</v>
@@ -38549,13 +38562,13 @@
         <v>93</v>
       </c>
       <c r="D706" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="E706">
         <v>169</v>
       </c>
       <c r="F706" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="G706">
         <v>2020</v>
@@ -38584,7 +38597,7 @@
         <v>93</v>
       </c>
       <c r="D707" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="E707">
         <v>314</v>
@@ -38619,7 +38632,7 @@
         <v>93</v>
       </c>
       <c r="D708" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="E708">
         <v>593</v>
@@ -38654,7 +38667,7 @@
         <v>159</v>
       </c>
       <c r="D709" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E709">
         <v>501</v>
@@ -38689,7 +38702,7 @@
         <v>159</v>
       </c>
       <c r="D710" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E710">
         <v>403</v>
@@ -38724,7 +38737,7 @@
         <v>159</v>
       </c>
       <c r="D711" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E711">
         <v>353</v>
@@ -38759,13 +38772,13 @@
         <v>159</v>
       </c>
       <c r="D712" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E712">
         <v>691</v>
       </c>
       <c r="F712" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G712">
         <v>2020</v>
@@ -38794,7 +38807,7 @@
         <v>159</v>
       </c>
       <c r="D713" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E713">
         <v>586</v>
@@ -38829,7 +38842,7 @@
         <v>159</v>
       </c>
       <c r="D714" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E714">
         <v>286</v>
@@ -38864,7 +38877,7 @@
         <v>159</v>
       </c>
       <c r="D715" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E715">
         <v>502</v>
@@ -38899,7 +38912,7 @@
         <v>159</v>
       </c>
       <c r="D716" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E716">
         <v>404</v>
@@ -38934,7 +38947,7 @@
         <v>159</v>
       </c>
       <c r="D717" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E717">
         <v>354</v>
@@ -38969,13 +38982,13 @@
         <v>159</v>
       </c>
       <c r="D718" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E718">
         <v>692</v>
       </c>
       <c r="F718" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G718">
         <v>2020</v>
@@ -39004,7 +39017,7 @@
         <v>159</v>
       </c>
       <c r="D719" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E719">
         <v>585</v>
@@ -39039,7 +39052,7 @@
         <v>159</v>
       </c>
       <c r="D720" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E720">
         <v>287</v>
@@ -39074,7 +39087,7 @@
         <v>102</v>
       </c>
       <c r="D721" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E721">
         <v>40</v>
@@ -39109,7 +39122,7 @@
         <v>93</v>
       </c>
       <c r="D722" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="E722">
         <v>252</v>
@@ -39144,7 +39157,7 @@
         <v>93</v>
       </c>
       <c r="D723" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E723">
         <v>229</v>
@@ -39179,7 +39192,7 @@
         <v>93</v>
       </c>
       <c r="D724" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="E724">
         <v>448</v>
@@ -39214,7 +39227,7 @@
         <v>93</v>
       </c>
       <c r="D725" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="E725">
         <v>453</v>
@@ -39249,7 +39262,7 @@
         <v>93</v>
       </c>
       <c r="D726" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E726">
         <v>451</v>
@@ -39284,7 +39297,7 @@
         <v>93</v>
       </c>
       <c r="D727" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E727">
         <v>3</v>
@@ -39319,7 +39332,7 @@
         <v>93</v>
       </c>
       <c r="D728" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="E728">
         <v>413</v>
@@ -39354,7 +39367,7 @@
         <v>93</v>
       </c>
       <c r="D729" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="E729">
         <v>12</v>
@@ -39389,7 +39402,7 @@
         <v>93</v>
       </c>
       <c r="D730" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="E730">
         <v>381</v>
@@ -39424,13 +39437,13 @@
         <v>93</v>
       </c>
       <c r="D731" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="E731">
         <v>191</v>
       </c>
       <c r="F731" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="G731">
         <v>2020</v>
@@ -39459,13 +39472,13 @@
         <v>93</v>
       </c>
       <c r="D732" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E732">
         <v>185</v>
       </c>
       <c r="F732" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="G732">
         <v>2020</v>
@@ -39494,7 +39507,7 @@
         <v>93</v>
       </c>
       <c r="D733" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="E733">
         <v>372</v>
@@ -39529,7 +39542,7 @@
         <v>93</v>
       </c>
       <c r="D734" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E734">
         <v>164</v>
@@ -39564,7 +39577,7 @@
         <v>93</v>
       </c>
       <c r="D735" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="E735">
         <v>182</v>
@@ -39599,13 +39612,13 @@
         <v>93</v>
       </c>
       <c r="D736" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="E736">
         <v>648</v>
       </c>
       <c r="F736" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G736">
         <v>2020</v>
@@ -39634,7 +39647,7 @@
         <v>93</v>
       </c>
       <c r="D737" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="E737">
         <v>315</v>
@@ -39669,7 +39682,7 @@
         <v>102</v>
       </c>
       <c r="D738" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E738">
         <v>620</v>
@@ -39704,7 +39717,7 @@
         <v>102</v>
       </c>
       <c r="D739" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="E739">
         <v>305</v>
@@ -39739,7 +39752,7 @@
         <v>102</v>
       </c>
       <c r="D740" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E740">
         <v>300</v>
@@ -39774,7 +39787,7 @@
         <v>93</v>
       </c>
       <c r="D741" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E741">
         <v>83</v>
@@ -39809,7 +39822,7 @@
         <v>93</v>
       </c>
       <c r="D742" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="E742">
         <v>256</v>
@@ -39844,7 +39857,7 @@
         <v>93</v>
       </c>
       <c r="D743" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="E743">
         <v>155</v>
@@ -39879,7 +39892,7 @@
         <v>93</v>
       </c>
       <c r="D744" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E744">
         <v>388</v>
@@ -39914,7 +39927,7 @@
         <v>93</v>
       </c>
       <c r="D745" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E745">
         <v>250</v>
@@ -39949,7 +39962,7 @@
         <v>134</v>
       </c>
       <c r="D746" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="E746">
         <v>752</v>
@@ -39984,7 +39997,7 @@
         <v>93</v>
       </c>
       <c r="D747" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E747">
         <v>730</v>
@@ -40019,7 +40032,7 @@
         <v>134</v>
       </c>
       <c r="D748" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="E748">
         <v>596</v>
@@ -40054,7 +40067,7 @@
         <v>93</v>
       </c>
       <c r="D749" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E749">
         <v>221</v>
@@ -40089,7 +40102,7 @@
         <v>93</v>
       </c>
       <c r="D750" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="E750">
         <v>511</v>
@@ -40124,7 +40137,7 @@
         <v>159</v>
       </c>
       <c r="D751" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E751">
         <v>475</v>
@@ -40159,7 +40172,7 @@
         <v>159</v>
       </c>
       <c r="D752" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E752">
         <v>396</v>
@@ -40194,7 +40207,7 @@
         <v>159</v>
       </c>
       <c r="D753" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E753">
         <v>269</v>
